--- a/spec/fixtures/FakeUsers.xlsx
+++ b/spec/fixtures/FakeUsers.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alex/src/osumb/challenges/models/mock-data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alex/src/osumb/challenges/spec/fixtures/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="698">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="698">
   <si>
     <t>Spot</t>
   </si>
@@ -2557,8 +2557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="J82" sqref="J82"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="D171" sqref="D171:D184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3830,7 +3830,9 @@
       <c r="C44" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D44" s="6"/>
+      <c r="D44" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="E44" s="4" t="s">
         <v>515</v>
       </c>
@@ -3857,7 +3859,9 @@
       <c r="C45" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D45" s="6"/>
+      <c r="D45" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="E45" s="4" t="s">
         <v>516</v>
       </c>
@@ -3884,7 +3888,9 @@
       <c r="C46" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D46" s="6"/>
+      <c r="D46" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="E46" s="4" t="s">
         <v>517</v>
       </c>
@@ -3911,7 +3917,9 @@
       <c r="C47" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D47" s="6"/>
+      <c r="D47" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="E47" s="4" t="s">
         <v>518</v>
       </c>
@@ -3938,7 +3946,9 @@
       <c r="C48" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D48" s="6"/>
+      <c r="D48" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="E48" s="4" t="s">
         <v>519</v>
       </c>
@@ -3965,7 +3975,9 @@
       <c r="C49" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D49" s="6"/>
+      <c r="D49" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="E49" s="4" t="s">
         <v>520</v>
       </c>
@@ -3992,7 +4004,9 @@
       <c r="C50" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D50" s="6"/>
+      <c r="D50" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="E50" s="4" t="s">
         <v>521</v>
       </c>
@@ -4019,7 +4033,9 @@
       <c r="C51" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D51" s="6"/>
+      <c r="D51" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="E51" s="4" t="s">
         <v>522</v>
       </c>
@@ -4046,7 +4062,9 @@
       <c r="C52" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D52" s="6"/>
+      <c r="D52" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="E52" s="4" t="s">
         <v>523</v>
       </c>
@@ -4073,7 +4091,9 @@
       <c r="C53" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D53" s="6"/>
+      <c r="D53" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="E53" s="4" t="s">
         <v>524</v>
       </c>
@@ -4100,7 +4120,9 @@
       <c r="C54" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D54" s="6"/>
+      <c r="D54" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="E54" s="4" t="s">
         <v>525</v>
       </c>
@@ -4127,7 +4149,9 @@
       <c r="C55" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D55" s="6"/>
+      <c r="D55" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="E55" s="4" t="s">
         <v>526</v>
       </c>
@@ -4154,7 +4178,9 @@
       <c r="C56" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D56" s="6"/>
+      <c r="D56" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="E56" s="4" t="s">
         <v>527</v>
       </c>
@@ -4181,7 +4207,9 @@
       <c r="C57" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D57" s="8"/>
+      <c r="D57" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="E57" s="4" t="s">
         <v>528</v>
       </c>
@@ -4615,7 +4643,9 @@
       <c r="C72" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D72" s="6"/>
+      <c r="D72" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="E72" s="4" t="s">
         <v>543</v>
       </c>
@@ -4642,7 +4672,9 @@
       <c r="C73" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D73" s="6"/>
+      <c r="D73" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="E73" s="4" t="s">
         <v>544</v>
       </c>
@@ -4669,7 +4701,9 @@
       <c r="C74" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D74" s="6"/>
+      <c r="D74" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="E74" s="4" t="s">
         <v>545</v>
       </c>
@@ -4696,7 +4730,9 @@
       <c r="C75" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D75" s="6"/>
+      <c r="D75" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="E75" s="4" t="s">
         <v>546</v>
       </c>
@@ -4723,7 +4759,9 @@
       <c r="C76" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D76" s="6"/>
+      <c r="D76" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="E76" s="4" t="s">
         <v>547</v>
       </c>
@@ -4750,7 +4788,9 @@
       <c r="C77" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D77" s="6"/>
+      <c r="D77" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="E77" s="4" t="s">
         <v>548</v>
       </c>
@@ -4777,7 +4817,9 @@
       <c r="C78" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D78" s="6"/>
+      <c r="D78" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="E78" s="4" t="s">
         <v>549</v>
       </c>
@@ -4804,7 +4846,9 @@
       <c r="C79" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D79" s="6"/>
+      <c r="D79" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="E79" s="4" t="s">
         <v>550</v>
       </c>
@@ -4831,7 +4875,9 @@
       <c r="C80" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D80" s="6"/>
+      <c r="D80" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="E80" s="4" t="s">
         <v>469</v>
       </c>
@@ -4858,7 +4904,9 @@
       <c r="C81" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D81" s="6"/>
+      <c r="D81" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="E81" s="4" t="s">
         <v>551</v>
       </c>
@@ -4886,7 +4934,9 @@
       <c r="C82" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D82" s="6"/>
+      <c r="D82" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="E82" s="4" t="s">
         <v>552</v>
       </c>
@@ -4914,7 +4964,9 @@
       <c r="C83" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D83" s="6"/>
+      <c r="D83" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="E83" s="4" t="s">
         <v>553</v>
       </c>
@@ -4941,7 +4993,9 @@
       <c r="C84" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D84" s="6"/>
+      <c r="D84" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="E84" s="4" t="s">
         <v>554</v>
       </c>
@@ -4968,7 +5022,9 @@
       <c r="C85" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D85" s="8"/>
+      <c r="D85" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="E85" s="4" t="s">
         <v>555</v>
       </c>
@@ -4995,7 +5051,9 @@
       <c r="C86" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D86" s="6"/>
+      <c r="D86" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="E86" s="4" t="s">
         <v>556</v>
       </c>
@@ -5022,7 +5080,9 @@
       <c r="C87" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D87" s="6"/>
+      <c r="D87" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="E87" s="4" t="s">
         <v>557</v>
       </c>
@@ -5049,7 +5109,9 @@
       <c r="C88" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D88" s="6"/>
+      <c r="D88" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="E88" s="4" t="s">
         <v>558</v>
       </c>
@@ -5077,7 +5139,9 @@
       <c r="C89" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D89" s="6"/>
+      <c r="D89" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="E89" s="4" t="s">
         <v>559</v>
       </c>
@@ -5104,7 +5168,9 @@
       <c r="C90" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D90" s="6"/>
+      <c r="D90" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="E90" s="4" t="s">
         <v>560</v>
       </c>
@@ -5131,7 +5197,9 @@
       <c r="C91" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D91" s="6"/>
+      <c r="D91" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="E91" s="4" t="s">
         <v>561</v>
       </c>
@@ -5158,7 +5226,9 @@
       <c r="C92" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D92" s="6"/>
+      <c r="D92" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="E92" s="4" t="s">
         <v>562</v>
       </c>
@@ -5185,7 +5255,9 @@
       <c r="C93" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D93" s="6"/>
+      <c r="D93" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="E93" s="4" t="s">
         <v>563</v>
       </c>
@@ -5212,7 +5284,9 @@
       <c r="C94" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D94" s="6"/>
+      <c r="D94" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="E94" s="4" t="s">
         <v>564</v>
       </c>
@@ -5239,7 +5313,9 @@
       <c r="C95" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D95" s="6"/>
+      <c r="D95" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="E95" s="4" t="s">
         <v>565</v>
       </c>
@@ -5266,7 +5342,9 @@
       <c r="C96" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D96" s="6"/>
+      <c r="D96" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="E96" s="4" t="s">
         <v>566</v>
       </c>
@@ -5293,7 +5371,9 @@
       <c r="C97" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D97" s="6"/>
+      <c r="D97" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="E97" s="4" t="s">
         <v>567</v>
       </c>
@@ -5320,7 +5400,9 @@
       <c r="C98" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D98" s="6"/>
+      <c r="D98" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="E98" s="4" t="s">
         <v>568</v>
       </c>
@@ -5347,7 +5429,9 @@
       <c r="C99" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D99" s="8"/>
+      <c r="D99" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="E99" s="4" t="s">
         <v>569</v>
       </c>
@@ -5374,7 +5458,9 @@
       <c r="C100" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="D100" s="6"/>
+      <c r="D100" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="E100" s="4" t="s">
         <v>570</v>
       </c>
@@ -5401,7 +5487,9 @@
       <c r="C101" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D101" s="6"/>
+      <c r="D101" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="E101" s="4" t="s">
         <v>571</v>
       </c>
@@ -5428,7 +5516,9 @@
       <c r="C102" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D102" s="6"/>
+      <c r="D102" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="E102" s="4" t="s">
         <v>572</v>
       </c>
@@ -5455,7 +5545,9 @@
       <c r="C103" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="D103" s="6"/>
+      <c r="D103" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="E103" s="4" t="s">
         <v>573</v>
       </c>
@@ -5482,7 +5574,9 @@
       <c r="C104" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="D104" s="6"/>
+      <c r="D104" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="E104" s="4" t="s">
         <v>574</v>
       </c>
@@ -5509,7 +5603,9 @@
       <c r="C105" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D105" s="6"/>
+      <c r="D105" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="E105" s="4" t="s">
         <v>575</v>
       </c>
@@ -5536,7 +5632,9 @@
       <c r="C106" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D106" s="6"/>
+      <c r="D106" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="E106" s="4" t="s">
         <v>576</v>
       </c>
@@ -5563,7 +5661,9 @@
       <c r="C107" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="D107" s="6"/>
+      <c r="D107" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="E107" s="4" t="s">
         <v>577</v>
       </c>
@@ -5590,7 +5690,9 @@
       <c r="C108" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="D108" s="6"/>
+      <c r="D108" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="E108" s="4" t="s">
         <v>578</v>
       </c>
@@ -5617,7 +5719,9 @@
       <c r="C109" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D109" s="6"/>
+      <c r="D109" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="E109" s="4" t="s">
         <v>579</v>
       </c>
@@ -5644,7 +5748,9 @@
       <c r="C110" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="D110" s="6"/>
+      <c r="D110" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="E110" s="4" t="s">
         <v>580</v>
       </c>
@@ -5672,7 +5778,9 @@
       <c r="C111" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="D111" s="6"/>
+      <c r="D111" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="E111" s="4" t="s">
         <v>581</v>
       </c>
@@ -5699,7 +5807,9 @@
       <c r="C112" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="D112" s="6"/>
+      <c r="D112" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="E112" s="4" t="s">
         <v>582</v>
       </c>
@@ -5726,7 +5836,9 @@
       <c r="C113" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D113" s="6"/>
+      <c r="D113" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="E113" s="4" t="s">
         <v>583</v>
       </c>
@@ -5753,7 +5865,9 @@
       <c r="C114" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="D114" s="8"/>
+      <c r="D114" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="E114" s="4" t="s">
         <v>584</v>
       </c>
@@ -5780,7 +5894,9 @@
       <c r="C115" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="D115" s="6"/>
+      <c r="D115" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="E115" s="4" t="s">
         <v>585</v>
       </c>
@@ -5807,7 +5923,9 @@
       <c r="C116" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="D116" s="6"/>
+      <c r="D116" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="E116" s="4" t="s">
         <v>586</v>
       </c>
@@ -5834,7 +5952,9 @@
       <c r="C117" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="D117" s="6"/>
+      <c r="D117" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="E117" s="4" t="s">
         <v>587</v>
       </c>
@@ -5862,7 +5982,9 @@
       <c r="C118" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="D118" s="6"/>
+      <c r="D118" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="E118" s="4" t="s">
         <v>588</v>
       </c>
@@ -5889,7 +6011,9 @@
       <c r="C119" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="D119" s="6"/>
+      <c r="D119" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="E119" s="4" t="s">
         <v>589</v>
       </c>
@@ -5916,7 +6040,9 @@
       <c r="C120" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="D120" s="6"/>
+      <c r="D120" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="E120" s="4" t="s">
         <v>470</v>
       </c>
@@ -5943,7 +6069,9 @@
       <c r="C121" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="D121" s="6"/>
+      <c r="D121" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="E121" s="4" t="s">
         <v>590</v>
       </c>
@@ -5970,7 +6098,9 @@
       <c r="C122" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="D122" s="6"/>
+      <c r="D122" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="E122" s="4" t="s">
         <v>591</v>
       </c>
@@ -5997,7 +6127,9 @@
       <c r="C123" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="D123" s="6"/>
+      <c r="D123" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="E123" s="4" t="s">
         <v>592</v>
       </c>
@@ -6024,7 +6156,9 @@
       <c r="C124" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="D124" s="6"/>
+      <c r="D124" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="E124" s="4" t="s">
         <v>593</v>
       </c>
@@ -6051,7 +6185,9 @@
       <c r="C125" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="D125" s="6"/>
+      <c r="D125" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="E125" s="4" t="s">
         <v>594</v>
       </c>
@@ -6078,7 +6214,9 @@
       <c r="C126" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="D126" s="6"/>
+      <c r="D126" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="E126" s="4" t="s">
         <v>595</v>
       </c>
@@ -6105,7 +6243,9 @@
       <c r="C127" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="D127" s="6"/>
+      <c r="D127" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="E127" s="4" t="s">
         <v>596</v>
       </c>
@@ -6132,7 +6272,9 @@
       <c r="C128" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="D128" s="8"/>
+      <c r="D128" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="E128" s="4" t="s">
         <v>597</v>
       </c>
@@ -6159,7 +6301,9 @@
       <c r="C129" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="D129" s="6"/>
+      <c r="D129" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="E129" s="4" t="s">
         <v>598</v>
       </c>
@@ -6186,7 +6330,9 @@
       <c r="C130" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="D130" s="6"/>
+      <c r="D130" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="E130" s="4" t="s">
         <v>599</v>
       </c>
@@ -6214,7 +6360,9 @@
       <c r="C131" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="D131" s="6"/>
+      <c r="D131" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="E131" s="4" t="s">
         <v>600</v>
       </c>
@@ -6241,7 +6389,9 @@
       <c r="C132" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="D132" s="6"/>
+      <c r="D132" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="E132" s="4" t="s">
         <v>601</v>
       </c>
@@ -6268,7 +6418,9 @@
       <c r="C133" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="D133" s="6"/>
+      <c r="D133" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="E133" s="4" t="s">
         <v>602</v>
       </c>
@@ -6295,7 +6447,9 @@
       <c r="C134" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="D134" s="6"/>
+      <c r="D134" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="E134" s="4" t="s">
         <v>603</v>
       </c>
@@ -6322,7 +6476,9 @@
       <c r="C135" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="D135" s="6"/>
+      <c r="D135" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="E135" s="4" t="s">
         <v>604</v>
       </c>
@@ -6349,7 +6505,9 @@
       <c r="C136" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="D136" s="6"/>
+      <c r="D136" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="E136" s="4" t="s">
         <v>605</v>
       </c>
@@ -6376,7 +6534,9 @@
       <c r="C137" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="D137" s="6"/>
+      <c r="D137" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="E137" s="4" t="s">
         <v>606</v>
       </c>
@@ -6403,7 +6563,9 @@
       <c r="C138" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="D138" s="6"/>
+      <c r="D138" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="E138" s="4" t="s">
         <v>607</v>
       </c>
@@ -6430,7 +6592,9 @@
       <c r="C139" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="D139" s="6"/>
+      <c r="D139" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="E139" s="4" t="s">
         <v>608</v>
       </c>
@@ -6457,7 +6621,9 @@
       <c r="C140" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="D140" s="6"/>
+      <c r="D140" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="E140" s="4" t="s">
         <v>609</v>
       </c>
@@ -6484,7 +6650,9 @@
       <c r="C141" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="D141" s="6"/>
+      <c r="D141" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="E141" s="4" t="s">
         <v>610</v>
       </c>
@@ -6511,7 +6679,9 @@
       <c r="C142" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="D142" s="6"/>
+      <c r="D142" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="E142" s="4" t="s">
         <v>611</v>
       </c>
@@ -6538,7 +6708,9 @@
       <c r="C143" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D143" s="6"/>
+      <c r="D143" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="E143" s="4" t="s">
         <v>612</v>
       </c>
@@ -6565,7 +6737,9 @@
       <c r="C144" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D144" s="6"/>
+      <c r="D144" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="E144" s="4" t="s">
         <v>613</v>
       </c>
@@ -6592,7 +6766,9 @@
       <c r="C145" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D145" s="6"/>
+      <c r="D145" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="E145" s="4" t="s">
         <v>614</v>
       </c>
@@ -6619,7 +6795,9 @@
       <c r="C146" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D146" s="6"/>
+      <c r="D146" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="E146" s="4" t="s">
         <v>615</v>
       </c>
@@ -6646,7 +6824,9 @@
       <c r="C147" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D147" s="6"/>
+      <c r="D147" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="E147" s="4" t="s">
         <v>616</v>
       </c>
@@ -6673,7 +6853,9 @@
       <c r="C148" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D148" s="6"/>
+      <c r="D148" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="E148" s="4" t="s">
         <v>617</v>
       </c>
@@ -6700,7 +6882,9 @@
       <c r="C149" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D149" s="6"/>
+      <c r="D149" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="E149" s="4" t="s">
         <v>618</v>
       </c>
@@ -6727,7 +6911,9 @@
       <c r="C150" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D150" s="6"/>
+      <c r="D150" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="E150" s="4" t="s">
         <v>619</v>
       </c>
@@ -6755,7 +6941,9 @@
       <c r="C151" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D151" s="6"/>
+      <c r="D151" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="E151" s="4" t="s">
         <v>620</v>
       </c>
@@ -6782,7 +6970,9 @@
       <c r="C152" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D152" s="6"/>
+      <c r="D152" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="E152" s="4" t="s">
         <v>621</v>
       </c>
@@ -6809,7 +6999,9 @@
       <c r="C153" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D153" s="6"/>
+      <c r="D153" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="E153" s="4" t="s">
         <v>622</v>
       </c>
@@ -6836,7 +7028,9 @@
       <c r="C154" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D154" s="6"/>
+      <c r="D154" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="E154" s="4" t="s">
         <v>623</v>
       </c>
@@ -6863,7 +7057,9 @@
       <c r="C155" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D155" s="6"/>
+      <c r="D155" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="E155" s="4" t="s">
         <v>624</v>
       </c>
@@ -6890,7 +7086,9 @@
       <c r="C156" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D156" s="8"/>
+      <c r="D156" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="E156" s="4" t="s">
         <v>625</v>
       </c>
@@ -7324,7 +7522,9 @@
       <c r="C171" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D171" s="1"/>
+      <c r="D171" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="E171" s="4" t="s">
         <v>639</v>
       </c>
@@ -7351,7 +7551,9 @@
       <c r="C172" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D172" s="1"/>
+      <c r="D172" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="E172" s="4" t="s">
         <v>640</v>
       </c>
@@ -7379,7 +7581,9 @@
       <c r="C173" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D173" s="1"/>
+      <c r="D173" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="E173" s="4" t="s">
         <v>641</v>
       </c>
@@ -7406,7 +7610,9 @@
       <c r="C174" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D174" s="1"/>
+      <c r="D174" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="E174" s="4" t="s">
         <v>642</v>
       </c>
@@ -7434,7 +7640,9 @@
       <c r="C175" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D175" s="1"/>
+      <c r="D175" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="E175" s="4" t="s">
         <v>643</v>
       </c>
@@ -7461,7 +7669,9 @@
       <c r="C176" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D176" s="1"/>
+      <c r="D176" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="E176" s="4" t="s">
         <v>644</v>
       </c>
@@ -7488,7 +7698,9 @@
       <c r="C177" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D177" s="1"/>
+      <c r="D177" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="E177" s="4" t="s">
         <v>645</v>
       </c>
@@ -7515,7 +7727,9 @@
       <c r="C178" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D178" s="1"/>
+      <c r="D178" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="E178" s="4" t="s">
         <v>646</v>
       </c>
@@ -7542,7 +7756,9 @@
       <c r="C179" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D179" s="1"/>
+      <c r="D179" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="E179" s="4" t="s">
         <v>647</v>
       </c>
@@ -7569,7 +7785,9 @@
       <c r="C180" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D180" s="1"/>
+      <c r="D180" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="E180" s="4" t="s">
         <v>648</v>
       </c>
@@ -7596,7 +7814,9 @@
       <c r="C181" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D181" s="1"/>
+      <c r="D181" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="E181" s="4" t="s">
         <v>649</v>
       </c>
@@ -7623,7 +7843,9 @@
       <c r="C182" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D182" s="1"/>
+      <c r="D182" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="E182" s="4" t="s">
         <v>650</v>
       </c>
@@ -7650,7 +7872,9 @@
       <c r="C183" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D183" s="1"/>
+      <c r="D183" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="E183" s="4" t="s">
         <v>651</v>
       </c>
@@ -7677,7 +7901,9 @@
       <c r="C184" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D184" s="1"/>
+      <c r="D184" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="E184" s="4" t="s">
         <v>652</v>
       </c>

--- a/spec/fixtures/FakeUsers.xlsx
+++ b/spec/fixtures/FakeUsers.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-1440" windowWidth="38400" windowHeight="21140" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="698">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1362" uniqueCount="700">
   <si>
     <t>Spot</t>
   </si>
@@ -2118,6 +2118,12 @@
   </si>
   <si>
     <t>Password</t>
+  </si>
+  <si>
+    <t>Alex Tareshawty</t>
+  </si>
+  <si>
+    <t>tareshawty.3</t>
   </si>
 </sst>
 </file>
@@ -2555,10 +2561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J226"/>
+  <dimension ref="A1:J227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="D171" sqref="D171:D184"/>
+    <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
+      <selection activeCell="H228" sqref="H228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9140,6 +9146,20 @@
         <v>693</v>
       </c>
     </row>
+    <row r="227" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="B227" s="6" t="s">
+        <v>698</v>
+      </c>
+      <c r="E227" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="H227" t="b">
+        <v>1</v>
+      </c>
+      <c r="I227" s="4" t="s">
+        <v>699</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="E2">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>

--- a/spec/fixtures/FakeUsers.xlsx
+++ b/spec/fixtures/FakeUsers.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1362" uniqueCount="700">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1638" uniqueCount="722">
   <si>
     <t>Spot</t>
   </si>
@@ -2108,12 +2108,6 @@
     <t>Krebsbach.938</t>
   </si>
   <si>
-    <t>Eligible</t>
-  </si>
-  <si>
-    <t>SquadLeader</t>
-  </si>
-  <si>
     <t>Admin</t>
   </si>
   <si>
@@ -2124,6 +2118,78 @@
   </si>
   <si>
     <t>tareshawty.3</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>Member</t>
+  </si>
+  <si>
+    <t>ApproveInstrument</t>
+  </si>
+  <si>
+    <t>ApprovePart</t>
+  </si>
+  <si>
+    <t>Any</t>
+  </si>
+  <si>
+    <t>Ale Natale</t>
+  </si>
+  <si>
+    <t>natale.1</t>
+  </si>
+  <si>
+    <t>Director</t>
+  </si>
+  <si>
+    <t>Rini Hendrikx</t>
+  </si>
+  <si>
+    <t>Hendrikx.2</t>
+  </si>
+  <si>
+    <t>Hunter Raimondi</t>
+  </si>
+  <si>
+    <t>Raimondi.3</t>
+  </si>
+  <si>
+    <t>Nur Abdullah</t>
+  </si>
+  <si>
+    <t>Abdullah.4</t>
+  </si>
+  <si>
+    <t>Alexis Couman</t>
+  </si>
+  <si>
+    <t>Couman.5</t>
+  </si>
+  <si>
+    <t>Percussion</t>
+  </si>
+  <si>
+    <t>Squad Leader</t>
+  </si>
+  <si>
+    <t>Keone Holmes</t>
+  </si>
+  <si>
+    <t>Holmes.6</t>
+  </si>
+  <si>
+    <t>Jordan Chaikin</t>
+  </si>
+  <si>
+    <t>Chaikin.7</t>
+  </si>
+  <si>
+    <t>Mo Riber</t>
+  </si>
+  <si>
+    <t>Riber.8</t>
   </si>
 </sst>
 </file>
@@ -2149,18 +2215,12 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="7">
@@ -2243,7 +2303,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2260,9 +2320,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2561,10 +2618,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J227"/>
+  <dimension ref="A1:I235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
-      <selection activeCell="H228" sqref="H228"/>
+    <sheetView tabSelected="1" topLeftCell="A203" workbookViewId="0">
+      <selection activeCell="I235" sqref="I235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2574,10 +2631,13 @@
     <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2594,19 +2654,19 @@
         <v>466</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>695</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -2622,20 +2682,14 @@
       <c r="E2" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="F2" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" s="4" t="s">
+      <c r="F2" t="s">
+        <v>715</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
@@ -2651,20 +2705,14 @@
       <c r="E3" s="4" t="s">
         <v>476</v>
       </c>
-      <c r="F3" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" s="4" t="s">
+      <c r="F3" t="s">
+        <v>699</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
@@ -2680,21 +2728,14 @@
       <c r="E4" s="4" t="s">
         <v>477</v>
       </c>
-      <c r="F4" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" s="4" t="s">
+      <c r="F4" t="s">
+        <v>699</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>477</v>
       </c>
-      <c r="J4" s="14"/>
-    </row>
-    <row r="5" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
@@ -2710,21 +2751,14 @@
       <c r="E5" s="4" t="s">
         <v>478</v>
       </c>
-      <c r="F5" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" s="4" t="s">
+      <c r="F5" t="s">
+        <v>699</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>478</v>
       </c>
-      <c r="J5" s="14"/>
-    </row>
-    <row r="6" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>473</v>
       </c>
@@ -2740,20 +2774,14 @@
       <c r="E6" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="F6" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" s="4" t="s">
+      <c r="F6" t="s">
+        <v>699</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
@@ -2769,20 +2797,14 @@
       <c r="E7" s="4" t="s">
         <v>479</v>
       </c>
-      <c r="F7" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" s="4" t="s">
+      <c r="F7" t="s">
+        <v>699</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
@@ -2798,20 +2820,14 @@
       <c r="E8" s="4" t="s">
         <v>480</v>
       </c>
-      <c r="F8" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" s="4" t="s">
+      <c r="F8" t="s">
+        <v>699</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>13</v>
       </c>
@@ -2827,20 +2843,14 @@
       <c r="E9" s="4" t="s">
         <v>481</v>
       </c>
-      <c r="F9" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" s="4" t="s">
+      <c r="F9" t="s">
+        <v>699</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
@@ -2856,20 +2866,14 @@
       <c r="E10" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="F10" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" s="4" t="s">
+      <c r="F10" t="s">
+        <v>699</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>15</v>
       </c>
@@ -2885,20 +2889,14 @@
       <c r="E11" s="4" t="s">
         <v>483</v>
       </c>
-      <c r="F11" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" s="4" t="s">
+      <c r="F11" t="s">
+        <v>699</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>16</v>
       </c>
@@ -2914,20 +2912,14 @@
       <c r="E12" s="4" t="s">
         <v>484</v>
       </c>
-      <c r="F12" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" s="4" t="s">
+      <c r="F12" t="s">
+        <v>699</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>17</v>
       </c>
@@ -2943,20 +2935,14 @@
       <c r="E13" s="4" t="s">
         <v>485</v>
       </c>
-      <c r="F13" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" s="4" t="s">
+      <c r="F13" t="s">
+        <v>715</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>18</v>
       </c>
@@ -2972,20 +2958,14 @@
       <c r="E14" s="4" t="s">
         <v>486</v>
       </c>
-      <c r="F14" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" s="4" t="s">
+      <c r="F14" t="s">
+        <v>699</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>19</v>
       </c>
@@ -3001,20 +2981,14 @@
       <c r="E15" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="F15" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" s="4" t="s">
+      <c r="F15" t="s">
+        <v>699</v>
+      </c>
+      <c r="G15" s="4" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>20</v>
       </c>
@@ -3030,20 +3004,14 @@
       <c r="E16" s="4" t="s">
         <v>488</v>
       </c>
-      <c r="F16" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" s="4" t="s">
+      <c r="F16" t="s">
+        <v>715</v>
+      </c>
+      <c r="G16" s="4" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>22</v>
       </c>
@@ -3059,20 +3027,14 @@
       <c r="E17" s="4" t="s">
         <v>489</v>
       </c>
-      <c r="F17" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" s="4" t="s">
+      <c r="F17" t="s">
+        <v>699</v>
+      </c>
+      <c r="G17" s="4" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>24</v>
       </c>
@@ -3088,20 +3050,14 @@
       <c r="E18" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="F18" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18" s="4" t="s">
+      <c r="F18" t="s">
+        <v>699</v>
+      </c>
+      <c r="G18" s="4" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>25</v>
       </c>
@@ -3117,20 +3073,14 @@
       <c r="E19" s="4" t="s">
         <v>491</v>
       </c>
-      <c r="F19" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" s="4" t="s">
+      <c r="F19" t="s">
+        <v>699</v>
+      </c>
+      <c r="G19" s="4" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>26</v>
       </c>
@@ -3146,20 +3096,14 @@
       <c r="E20" s="4" t="s">
         <v>492</v>
       </c>
-      <c r="F20" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" s="4" t="s">
+      <c r="F20" t="s">
+        <v>699</v>
+      </c>
+      <c r="G20" s="4" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>27</v>
       </c>
@@ -3175,20 +3119,14 @@
       <c r="E21" s="4" t="s">
         <v>493</v>
       </c>
-      <c r="F21" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" s="4" t="s">
+      <c r="F21" t="s">
+        <v>699</v>
+      </c>
+      <c r="G21" s="4" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>28</v>
       </c>
@@ -3204,20 +3142,14 @@
       <c r="E22" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="F22" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" s="4" t="s">
+      <c r="F22" t="s">
+        <v>699</v>
+      </c>
+      <c r="G22" s="4" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>29</v>
       </c>
@@ -3233,20 +3165,14 @@
       <c r="E23" s="4" t="s">
         <v>495</v>
       </c>
-      <c r="F23" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" s="4" t="s">
+      <c r="F23" t="s">
+        <v>699</v>
+      </c>
+      <c r="G23" s="4" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>30</v>
       </c>
@@ -3262,20 +3188,14 @@
       <c r="E24" s="4" t="s">
         <v>496</v>
       </c>
-      <c r="F24" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" t="b">
-        <v>0</v>
-      </c>
-      <c r="I24" s="4" t="s">
+      <c r="F24" t="s">
+        <v>699</v>
+      </c>
+      <c r="G24" s="4" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>31</v>
       </c>
@@ -3291,20 +3211,14 @@
       <c r="E25" s="4" t="s">
         <v>497</v>
       </c>
-      <c r="F25" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" s="4" t="s">
+      <c r="F25" t="s">
+        <v>699</v>
+      </c>
+      <c r="G25" s="4" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>32</v>
       </c>
@@ -3320,20 +3234,14 @@
       <c r="E26" s="4" t="s">
         <v>498</v>
       </c>
-      <c r="F26" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" s="4" t="s">
+      <c r="F26" t="s">
+        <v>699</v>
+      </c>
+      <c r="G26" s="4" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>33</v>
       </c>
@@ -3349,20 +3257,14 @@
       <c r="E27" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="F27" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G27" t="b">
-        <v>1</v>
-      </c>
-      <c r="H27" t="b">
-        <v>0</v>
-      </c>
-      <c r="I27" s="4" t="s">
+      <c r="F27" t="s">
+        <v>715</v>
+      </c>
+      <c r="G27" s="4" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>34</v>
       </c>
@@ -3378,20 +3280,14 @@
       <c r="E28" s="4" t="s">
         <v>500</v>
       </c>
-      <c r="F28" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28" t="b">
-        <v>0</v>
-      </c>
-      <c r="I28" s="4" t="s">
+      <c r="F28" t="s">
+        <v>699</v>
+      </c>
+      <c r="G28" s="4" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>35</v>
       </c>
@@ -3407,20 +3303,14 @@
       <c r="E29" s="4" t="s">
         <v>501</v>
       </c>
-      <c r="F29" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29" t="b">
-        <v>0</v>
-      </c>
-      <c r="I29" s="4" t="s">
+      <c r="F29" t="s">
+        <v>699</v>
+      </c>
+      <c r="G29" s="4" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>36</v>
       </c>
@@ -3436,20 +3326,14 @@
       <c r="E30" s="4" t="s">
         <v>502</v>
       </c>
-      <c r="F30" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" s="4" t="s">
+      <c r="F30" t="s">
+        <v>715</v>
+      </c>
+      <c r="G30" s="4" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>38</v>
       </c>
@@ -3465,20 +3349,14 @@
       <c r="E31" s="4" t="s">
         <v>503</v>
       </c>
-      <c r="F31" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" s="4" t="s">
+      <c r="F31" t="s">
+        <v>699</v>
+      </c>
+      <c r="G31" s="4" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>39</v>
       </c>
@@ -3494,20 +3372,14 @@
       <c r="E32" s="4" t="s">
         <v>504</v>
       </c>
-      <c r="F32" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" s="4" t="s">
+      <c r="F32" t="s">
+        <v>699</v>
+      </c>
+      <c r="G32" s="4" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>40</v>
       </c>
@@ -3523,20 +3395,14 @@
       <c r="E33" s="4" t="s">
         <v>505</v>
       </c>
-      <c r="F33" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33" t="b">
-        <v>0</v>
-      </c>
-      <c r="I33" s="4" t="s">
+      <c r="F33" t="s">
+        <v>699</v>
+      </c>
+      <c r="G33" s="4" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>41</v>
       </c>
@@ -3552,20 +3418,14 @@
       <c r="E34" s="4" t="s">
         <v>506</v>
       </c>
-      <c r="F34" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34" t="b">
-        <v>0</v>
-      </c>
-      <c r="I34" s="4" t="s">
+      <c r="F34" t="s">
+        <v>699</v>
+      </c>
+      <c r="G34" s="4" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>42</v>
       </c>
@@ -3581,20 +3441,14 @@
       <c r="E35" s="4" t="s">
         <v>507</v>
       </c>
-      <c r="F35" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35" t="b">
-        <v>0</v>
-      </c>
-      <c r="I35" s="4" t="s">
+      <c r="F35" t="s">
+        <v>699</v>
+      </c>
+      <c r="G35" s="4" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>43</v>
       </c>
@@ -3610,20 +3464,14 @@
       <c r="E36" s="4" t="s">
         <v>508</v>
       </c>
-      <c r="F36" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36" t="b">
-        <v>0</v>
-      </c>
-      <c r="I36" s="4" t="s">
+      <c r="F36" t="s">
+        <v>699</v>
+      </c>
+      <c r="G36" s="4" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>44</v>
       </c>
@@ -3639,20 +3487,14 @@
       <c r="E37" s="4" t="s">
         <v>509</v>
       </c>
-      <c r="F37" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G37" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37" t="b">
-        <v>0</v>
-      </c>
-      <c r="I37" s="4" t="s">
+      <c r="F37" t="s">
+        <v>699</v>
+      </c>
+      <c r="G37" s="4" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>45</v>
       </c>
@@ -3668,20 +3510,14 @@
       <c r="E38" s="4" t="s">
         <v>510</v>
       </c>
-      <c r="F38" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38" t="b">
-        <v>0</v>
-      </c>
-      <c r="I38" s="4" t="s">
+      <c r="F38" t="s">
+        <v>699</v>
+      </c>
+      <c r="G38" s="4" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>46</v>
       </c>
@@ -3697,20 +3533,14 @@
       <c r="E39" s="4" t="s">
         <v>511</v>
       </c>
-      <c r="F39" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" s="4" t="s">
+      <c r="F39" t="s">
+        <v>699</v>
+      </c>
+      <c r="G39" s="4" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>47</v>
       </c>
@@ -3726,20 +3556,14 @@
       <c r="E40" s="4" t="s">
         <v>468</v>
       </c>
-      <c r="F40" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G40" t="b">
-        <v>0</v>
-      </c>
-      <c r="H40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" s="4" t="s">
+      <c r="F40" t="s">
+        <v>699</v>
+      </c>
+      <c r="G40" s="4" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>48</v>
       </c>
@@ -3755,20 +3579,14 @@
       <c r="E41" s="4" t="s">
         <v>512</v>
       </c>
-      <c r="F41" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G41" t="b">
-        <v>1</v>
-      </c>
-      <c r="H41" t="b">
-        <v>0</v>
-      </c>
-      <c r="I41" s="4" t="s">
+      <c r="F41" t="s">
+        <v>715</v>
+      </c>
+      <c r="G41" s="4" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>49</v>
       </c>
@@ -3784,20 +3602,14 @@
       <c r="E42" s="4" t="s">
         <v>513</v>
       </c>
-      <c r="F42" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="G42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H42" t="b">
-        <v>0</v>
-      </c>
-      <c r="I42" s="4" t="s">
+      <c r="F42" t="s">
+        <v>699</v>
+      </c>
+      <c r="G42" s="4" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>50</v>
       </c>
@@ -3813,20 +3625,14 @@
       <c r="E43" s="4" t="s">
         <v>514</v>
       </c>
-      <c r="F43" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="G43" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43" t="b">
-        <v>0</v>
-      </c>
-      <c r="I43" s="4" t="s">
+      <c r="F43" t="s">
+        <v>699</v>
+      </c>
+      <c r="G43" s="4" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>51</v>
       </c>
@@ -3842,20 +3648,14 @@
       <c r="E44" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="F44" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G44" t="b">
-        <v>1</v>
-      </c>
-      <c r="H44" t="b">
-        <v>0</v>
-      </c>
-      <c r="I44" s="4" t="s">
+      <c r="F44" t="s">
+        <v>715</v>
+      </c>
+      <c r="G44" s="4" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>53</v>
       </c>
@@ -3871,20 +3671,14 @@
       <c r="E45" s="4" t="s">
         <v>516</v>
       </c>
-      <c r="F45" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" s="4" t="s">
+      <c r="F45" t="s">
+        <v>699</v>
+      </c>
+      <c r="G45" s="4" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>54</v>
       </c>
@@ -3900,20 +3694,14 @@
       <c r="E46" s="4" t="s">
         <v>517</v>
       </c>
-      <c r="F46" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H46" t="b">
-        <v>0</v>
-      </c>
-      <c r="I46" s="4" t="s">
+      <c r="F46" t="s">
+        <v>699</v>
+      </c>
+      <c r="G46" s="4" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>55</v>
       </c>
@@ -3929,20 +3717,14 @@
       <c r="E47" s="4" t="s">
         <v>518</v>
       </c>
-      <c r="F47" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H47" t="b">
-        <v>0</v>
-      </c>
-      <c r="I47" s="4" t="s">
+      <c r="F47" t="s">
+        <v>699</v>
+      </c>
+      <c r="G47" s="4" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>56</v>
       </c>
@@ -3958,20 +3740,14 @@
       <c r="E48" s="4" t="s">
         <v>519</v>
       </c>
-      <c r="F48" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H48" t="b">
-        <v>0</v>
-      </c>
-      <c r="I48" s="4" t="s">
+      <c r="F48" t="s">
+        <v>699</v>
+      </c>
+      <c r="G48" s="4" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>57</v>
       </c>
@@ -3987,20 +3763,14 @@
       <c r="E49" s="4" t="s">
         <v>520</v>
       </c>
-      <c r="F49" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" s="4" t="s">
+      <c r="F49" t="s">
+        <v>699</v>
+      </c>
+      <c r="G49" s="4" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>58</v>
       </c>
@@ -4016,20 +3786,14 @@
       <c r="E50" s="4" t="s">
         <v>521</v>
       </c>
-      <c r="F50" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G50" t="b">
-        <v>0</v>
-      </c>
-      <c r="H50" t="b">
-        <v>0</v>
-      </c>
-      <c r="I50" s="4" t="s">
+      <c r="F50" t="s">
+        <v>699</v>
+      </c>
+      <c r="G50" s="4" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>59</v>
       </c>
@@ -4045,20 +3809,14 @@
       <c r="E51" s="4" t="s">
         <v>522</v>
       </c>
-      <c r="F51" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" s="4" t="s">
+      <c r="F51" t="s">
+        <v>699</v>
+      </c>
+      <c r="G51" s="4" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>60</v>
       </c>
@@ -4074,20 +3832,14 @@
       <c r="E52" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="F52" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G52" t="b">
-        <v>0</v>
-      </c>
-      <c r="H52" t="b">
-        <v>0</v>
-      </c>
-      <c r="I52" s="4" t="s">
+      <c r="F52" t="s">
+        <v>699</v>
+      </c>
+      <c r="G52" s="4" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>61</v>
       </c>
@@ -4103,20 +3855,14 @@
       <c r="E53" s="4" t="s">
         <v>524</v>
       </c>
-      <c r="F53" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G53" t="b">
-        <v>0</v>
-      </c>
-      <c r="H53" t="b">
-        <v>0</v>
-      </c>
-      <c r="I53" s="4" t="s">
+      <c r="F53" t="s">
+        <v>699</v>
+      </c>
+      <c r="G53" s="4" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>62</v>
       </c>
@@ -4132,20 +3878,14 @@
       <c r="E54" s="4" t="s">
         <v>525</v>
       </c>
-      <c r="F54" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G54" t="b">
-        <v>0</v>
-      </c>
-      <c r="H54" t="b">
-        <v>0</v>
-      </c>
-      <c r="I54" s="4" t="s">
+      <c r="F54" t="s">
+        <v>699</v>
+      </c>
+      <c r="G54" s="4" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>63</v>
       </c>
@@ -4161,20 +3901,14 @@
       <c r="E55" s="4" t="s">
         <v>526</v>
       </c>
-      <c r="F55" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G55" t="b">
-        <v>1</v>
-      </c>
-      <c r="H55" t="b">
-        <v>0</v>
-      </c>
-      <c r="I55" s="4" t="s">
+      <c r="F55" t="s">
+        <v>715</v>
+      </c>
+      <c r="G55" s="4" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>64</v>
       </c>
@@ -4190,20 +3924,14 @@
       <c r="E56" s="4" t="s">
         <v>527</v>
       </c>
-      <c r="F56" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="G56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H56" t="b">
-        <v>0</v>
-      </c>
-      <c r="I56" s="4" t="s">
+      <c r="F56" t="s">
+        <v>699</v>
+      </c>
+      <c r="G56" s="4" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>65</v>
       </c>
@@ -4219,20 +3947,14 @@
       <c r="E57" s="4" t="s">
         <v>528</v>
       </c>
-      <c r="F57" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="G57" t="b">
-        <v>0</v>
-      </c>
-      <c r="H57" t="b">
-        <v>0</v>
-      </c>
-      <c r="I57" s="4" t="s">
+      <c r="F57" t="s">
+        <v>699</v>
+      </c>
+      <c r="G57" s="4" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>66</v>
       </c>
@@ -4248,20 +3970,14 @@
       <c r="E58" s="4" t="s">
         <v>529</v>
       </c>
-      <c r="F58" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G58" t="b">
-        <v>1</v>
-      </c>
-      <c r="H58" t="b">
-        <v>0</v>
-      </c>
-      <c r="I58" s="4" t="s">
+      <c r="F58" t="s">
+        <v>715</v>
+      </c>
+      <c r="G58" s="4" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>69</v>
       </c>
@@ -4277,20 +3993,14 @@
       <c r="E59" s="4" t="s">
         <v>530</v>
       </c>
-      <c r="F59" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G59" t="b">
-        <v>0</v>
-      </c>
-      <c r="H59" t="b">
-        <v>0</v>
-      </c>
-      <c r="I59" s="4" t="s">
+      <c r="F59" t="s">
+        <v>699</v>
+      </c>
+      <c r="G59" s="4" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>70</v>
       </c>
@@ -4306,21 +4016,14 @@
       <c r="E60" s="4" t="s">
         <v>531</v>
       </c>
-      <c r="F60" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60" t="b">
-        <v>0</v>
-      </c>
-      <c r="I60" s="4" t="s">
+      <c r="F60" t="s">
+        <v>699</v>
+      </c>
+      <c r="G60" s="4" t="s">
         <v>531</v>
       </c>
-      <c r="J60" s="14"/>
-    </row>
-    <row r="61" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>71</v>
       </c>
@@ -4336,20 +4039,14 @@
       <c r="E61" s="4" t="s">
         <v>532</v>
       </c>
-      <c r="F61" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G61" t="b">
-        <v>0</v>
-      </c>
-      <c r="H61" t="b">
-        <v>0</v>
-      </c>
-      <c r="I61" s="4" t="s">
+      <c r="F61" t="s">
+        <v>699</v>
+      </c>
+      <c r="G61" s="4" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>72</v>
       </c>
@@ -4365,20 +4062,14 @@
       <c r="E62" s="4" t="s">
         <v>533</v>
       </c>
-      <c r="F62" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G62" t="b">
-        <v>0</v>
-      </c>
-      <c r="H62" t="b">
-        <v>0</v>
-      </c>
-      <c r="I62" s="4" t="s">
+      <c r="F62" t="s">
+        <v>699</v>
+      </c>
+      <c r="G62" s="4" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>73</v>
       </c>
@@ -4394,20 +4085,14 @@
       <c r="E63" s="4" t="s">
         <v>534</v>
       </c>
-      <c r="F63" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G63" t="b">
-        <v>0</v>
-      </c>
-      <c r="H63" t="b">
-        <v>0</v>
-      </c>
-      <c r="I63" s="4" t="s">
+      <c r="F63" t="s">
+        <v>699</v>
+      </c>
+      <c r="G63" s="4" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>234</v>
       </c>
@@ -4423,20 +4108,14 @@
       <c r="E64" s="4" t="s">
         <v>535</v>
       </c>
-      <c r="F64" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
-      </c>
-      <c r="H64" t="b">
-        <v>0</v>
-      </c>
-      <c r="I64" s="4" t="s">
+      <c r="F64" t="s">
+        <v>699</v>
+      </c>
+      <c r="G64" s="4" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>74</v>
       </c>
@@ -4452,20 +4131,14 @@
       <c r="E65" s="4" t="s">
         <v>536</v>
       </c>
-      <c r="F65" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G65" t="b">
-        <v>0</v>
-      </c>
-      <c r="H65" t="b">
-        <v>0</v>
-      </c>
-      <c r="I65" s="4" t="s">
+      <c r="F65" t="s">
+        <v>699</v>
+      </c>
+      <c r="G65" s="4" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>75</v>
       </c>
@@ -4481,20 +4154,14 @@
       <c r="E66" s="4" t="s">
         <v>537</v>
       </c>
-      <c r="F66" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G66" t="b">
-        <v>0</v>
-      </c>
-      <c r="H66" t="b">
-        <v>0</v>
-      </c>
-      <c r="I66" s="4" t="s">
+      <c r="F66" t="s">
+        <v>699</v>
+      </c>
+      <c r="G66" s="4" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>76</v>
       </c>
@@ -4510,20 +4177,14 @@
       <c r="E67" s="4" t="s">
         <v>538</v>
       </c>
-      <c r="F67" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G67" t="b">
-        <v>0</v>
-      </c>
-      <c r="H67" t="b">
-        <v>0</v>
-      </c>
-      <c r="I67" s="4" t="s">
+      <c r="F67" t="s">
+        <v>699</v>
+      </c>
+      <c r="G67" s="4" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>77</v>
       </c>
@@ -4539,20 +4200,14 @@
       <c r="E68" s="4" t="s">
         <v>539</v>
       </c>
-      <c r="F68" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G68" t="b">
-        <v>0</v>
-      </c>
-      <c r="H68" t="b">
-        <v>0</v>
-      </c>
-      <c r="I68" s="4" t="s">
+      <c r="F68" t="s">
+        <v>699</v>
+      </c>
+      <c r="G68" s="4" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>78</v>
       </c>
@@ -4568,20 +4223,14 @@
       <c r="E69" s="4" t="s">
         <v>540</v>
       </c>
-      <c r="F69" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G69" t="b">
-        <v>1</v>
-      </c>
-      <c r="H69" t="b">
-        <v>0</v>
-      </c>
-      <c r="I69" s="4" t="s">
+      <c r="F69" t="s">
+        <v>715</v>
+      </c>
+      <c r="G69" s="4" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>79</v>
       </c>
@@ -4597,20 +4246,14 @@
       <c r="E70" s="4" t="s">
         <v>541</v>
       </c>
-      <c r="F70" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="G70" t="b">
-        <v>0</v>
-      </c>
-      <c r="H70" t="b">
-        <v>0</v>
-      </c>
-      <c r="I70" s="4" t="s">
+      <c r="F70" t="s">
+        <v>699</v>
+      </c>
+      <c r="G70" s="4" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
         <v>80</v>
       </c>
@@ -4626,20 +4269,14 @@
       <c r="E71" s="4" t="s">
         <v>542</v>
       </c>
-      <c r="F71" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71" t="b">
-        <v>0</v>
-      </c>
-      <c r="I71" s="4" t="s">
+      <c r="F71" t="s">
+        <v>699</v>
+      </c>
+      <c r="G71" s="4" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>235</v>
       </c>
@@ -4655,20 +4292,14 @@
       <c r="E72" s="4" t="s">
         <v>543</v>
       </c>
-      <c r="F72" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G72" t="b">
-        <v>1</v>
-      </c>
-      <c r="H72" t="b">
-        <v>0</v>
-      </c>
-      <c r="I72" s="4" t="s">
+      <c r="F72" t="s">
+        <v>715</v>
+      </c>
+      <c r="G72" s="4" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>81</v>
       </c>
@@ -4684,20 +4315,14 @@
       <c r="E73" s="4" t="s">
         <v>544</v>
       </c>
-      <c r="F73" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G73" t="b">
-        <v>0</v>
-      </c>
-      <c r="H73" t="b">
-        <v>0</v>
-      </c>
-      <c r="I73" s="4" t="s">
+      <c r="F73" t="s">
+        <v>699</v>
+      </c>
+      <c r="G73" s="4" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>83</v>
       </c>
@@ -4713,20 +4338,14 @@
       <c r="E74" s="4" t="s">
         <v>545</v>
       </c>
-      <c r="F74" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G74" t="b">
-        <v>0</v>
-      </c>
-      <c r="H74" t="b">
-        <v>0</v>
-      </c>
-      <c r="I74" s="4" t="s">
+      <c r="F74" t="s">
+        <v>699</v>
+      </c>
+      <c r="G74" s="4" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>84</v>
       </c>
@@ -4742,20 +4361,14 @@
       <c r="E75" s="4" t="s">
         <v>546</v>
       </c>
-      <c r="F75" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G75" t="b">
-        <v>0</v>
-      </c>
-      <c r="H75" t="b">
-        <v>0</v>
-      </c>
-      <c r="I75" s="4" t="s">
+      <c r="F75" t="s">
+        <v>699</v>
+      </c>
+      <c r="G75" s="4" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>85</v>
       </c>
@@ -4771,20 +4384,14 @@
       <c r="E76" s="4" t="s">
         <v>547</v>
       </c>
-      <c r="F76" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G76" t="b">
-        <v>0</v>
-      </c>
-      <c r="H76" t="b">
-        <v>0</v>
-      </c>
-      <c r="I76" s="4" t="s">
+      <c r="F76" t="s">
+        <v>699</v>
+      </c>
+      <c r="G76" s="4" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>86</v>
       </c>
@@ -4800,20 +4407,14 @@
       <c r="E77" s="4" t="s">
         <v>548</v>
       </c>
-      <c r="F77" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G77" t="b">
-        <v>0</v>
-      </c>
-      <c r="H77" t="b">
-        <v>0</v>
-      </c>
-      <c r="I77" s="4" t="s">
+      <c r="F77" t="s">
+        <v>699</v>
+      </c>
+      <c r="G77" s="4" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>87</v>
       </c>
@@ -4829,20 +4430,14 @@
       <c r="E78" s="4" t="s">
         <v>549</v>
       </c>
-      <c r="F78" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G78" t="b">
-        <v>0</v>
-      </c>
-      <c r="H78" t="b">
-        <v>0</v>
-      </c>
-      <c r="I78" s="4" t="s">
+      <c r="F78" t="s">
+        <v>699</v>
+      </c>
+      <c r="G78" s="4" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>88</v>
       </c>
@@ -4858,20 +4453,14 @@
       <c r="E79" s="4" t="s">
         <v>550</v>
       </c>
-      <c r="F79" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G79" t="b">
-        <v>0</v>
-      </c>
-      <c r="H79" t="b">
-        <v>0</v>
-      </c>
-      <c r="I79" s="4" t="s">
+      <c r="F79" t="s">
+        <v>699</v>
+      </c>
+      <c r="G79" s="4" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>89</v>
       </c>
@@ -4887,20 +4476,14 @@
       <c r="E80" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="F80" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G80" t="b">
-        <v>0</v>
-      </c>
-      <c r="H80" t="b">
-        <v>0</v>
-      </c>
-      <c r="I80" s="4" t="s">
+      <c r="F80" t="s">
+        <v>699</v>
+      </c>
+      <c r="G80" s="4" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>90</v>
       </c>
@@ -4916,21 +4499,14 @@
       <c r="E81" s="4" t="s">
         <v>551</v>
       </c>
-      <c r="F81" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G81" t="b">
-        <v>0</v>
-      </c>
-      <c r="H81" t="b">
-        <v>0</v>
-      </c>
-      <c r="I81" s="4" t="s">
+      <c r="F81" t="s">
+        <v>699</v>
+      </c>
+      <c r="G81" s="4" t="s">
         <v>551</v>
       </c>
-      <c r="J81" s="14"/>
-    </row>
-    <row r="82" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>91</v>
       </c>
@@ -4946,21 +4522,14 @@
       <c r="E82" s="4" t="s">
         <v>552</v>
       </c>
-      <c r="F82" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G82" t="b">
-        <v>0</v>
-      </c>
-      <c r="H82" t="b">
-        <v>0</v>
-      </c>
-      <c r="I82" s="4" t="s">
+      <c r="F82" t="s">
+        <v>699</v>
+      </c>
+      <c r="G82" s="4" t="s">
         <v>552</v>
       </c>
-      <c r="J82" s="14"/>
-    </row>
-    <row r="83" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>92</v>
       </c>
@@ -4976,20 +4545,14 @@
       <c r="E83" s="4" t="s">
         <v>553</v>
       </c>
-      <c r="F83" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G83" t="b">
-        <v>1</v>
-      </c>
-      <c r="H83" t="b">
-        <v>0</v>
-      </c>
-      <c r="I83" s="4" t="s">
+      <c r="F83" t="s">
+        <v>715</v>
+      </c>
+      <c r="G83" s="4" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>93</v>
       </c>
@@ -5005,20 +4568,14 @@
       <c r="E84" s="4" t="s">
         <v>554</v>
       </c>
-      <c r="F84" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="G84" t="b">
-        <v>0</v>
-      </c>
-      <c r="H84" t="b">
-        <v>0</v>
-      </c>
-      <c r="I84" s="4" t="s">
+      <c r="F84" t="s">
+        <v>699</v>
+      </c>
+      <c r="G84" s="4" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
         <v>94</v>
       </c>
@@ -5034,20 +4591,14 @@
       <c r="E85" s="4" t="s">
         <v>555</v>
       </c>
-      <c r="F85" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="G85" t="b">
-        <v>0</v>
-      </c>
-      <c r="H85" t="b">
-        <v>0</v>
-      </c>
-      <c r="I85" s="4" t="s">
+      <c r="F85" t="s">
+        <v>699</v>
+      </c>
+      <c r="G85" s="4" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>95</v>
       </c>
@@ -5055,28 +4606,22 @@
         <v>328</v>
       </c>
       <c r="C86" s="6" t="s">
+        <v>714</v>
+      </c>
+      <c r="D86" s="6" t="s">
         <v>96</v>
-      </c>
-      <c r="D86" s="6" t="s">
-        <v>23</v>
       </c>
       <c r="E86" s="4" t="s">
         <v>556</v>
       </c>
-      <c r="F86" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G86" t="b">
-        <v>1</v>
-      </c>
-      <c r="H86" t="b">
-        <v>0</v>
-      </c>
-      <c r="I86" s="4" t="s">
+      <c r="F86" t="s">
+        <v>699</v>
+      </c>
+      <c r="G86" s="4" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>97</v>
       </c>
@@ -5084,28 +4629,22 @@
         <v>329</v>
       </c>
       <c r="C87" s="6" t="s">
+        <v>714</v>
+      </c>
+      <c r="D87" s="6" t="s">
         <v>96</v>
-      </c>
-      <c r="D87" s="6" t="s">
-        <v>23</v>
       </c>
       <c r="E87" s="4" t="s">
         <v>557</v>
       </c>
-      <c r="F87" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G87" t="b">
-        <v>0</v>
-      </c>
-      <c r="H87" t="b">
-        <v>0</v>
-      </c>
-      <c r="I87" s="4" t="s">
+      <c r="F87" t="s">
+        <v>699</v>
+      </c>
+      <c r="G87" s="4" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>98</v>
       </c>
@@ -5113,29 +4652,22 @@
         <v>330</v>
       </c>
       <c r="C88" s="6" t="s">
+        <v>714</v>
+      </c>
+      <c r="D88" s="6" t="s">
         <v>96</v>
-      </c>
-      <c r="D88" s="6" t="s">
-        <v>23</v>
       </c>
       <c r="E88" s="4" t="s">
         <v>558</v>
       </c>
-      <c r="F88" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G88" t="b">
-        <v>0</v>
-      </c>
-      <c r="H88" t="b">
-        <v>0</v>
-      </c>
-      <c r="I88" s="4" t="s">
+      <c r="F88" t="s">
+        <v>699</v>
+      </c>
+      <c r="G88" s="4" t="s">
         <v>558</v>
       </c>
-      <c r="J88" s="14"/>
-    </row>
-    <row r="89" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
         <v>99</v>
       </c>
@@ -5143,28 +4675,22 @@
         <v>331</v>
       </c>
       <c r="C89" s="6" t="s">
+        <v>714</v>
+      </c>
+      <c r="D89" s="6" t="s">
         <v>96</v>
-      </c>
-      <c r="D89" s="6" t="s">
-        <v>23</v>
       </c>
       <c r="E89" s="4" t="s">
         <v>559</v>
       </c>
-      <c r="F89" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G89" t="b">
-        <v>0</v>
-      </c>
-      <c r="H89" t="b">
-        <v>0</v>
-      </c>
-      <c r="I89" s="4" t="s">
+      <c r="F89" t="s">
+        <v>699</v>
+      </c>
+      <c r="G89" s="4" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
         <v>100</v>
       </c>
@@ -5172,28 +4698,22 @@
         <v>332</v>
       </c>
       <c r="C90" s="6" t="s">
+        <v>714</v>
+      </c>
+      <c r="D90" s="6" t="s">
         <v>96</v>
-      </c>
-      <c r="D90" s="6" t="s">
-        <v>23</v>
       </c>
       <c r="E90" s="4" t="s">
         <v>560</v>
       </c>
-      <c r="F90" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G90" t="b">
-        <v>0</v>
-      </c>
-      <c r="H90" t="b">
-        <v>0</v>
-      </c>
-      <c r="I90" s="4" t="s">
+      <c r="F90" t="s">
+        <v>699</v>
+      </c>
+      <c r="G90" s="4" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>101</v>
       </c>
@@ -5201,28 +4721,22 @@
         <v>333</v>
       </c>
       <c r="C91" s="6" t="s">
+        <v>714</v>
+      </c>
+      <c r="D91" s="6" t="s">
         <v>96</v>
-      </c>
-      <c r="D91" s="6" t="s">
-        <v>23</v>
       </c>
       <c r="E91" s="4" t="s">
         <v>561</v>
       </c>
-      <c r="F91" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G91" t="b">
-        <v>1</v>
-      </c>
-      <c r="H91" t="b">
-        <v>0</v>
-      </c>
-      <c r="I91" s="4" t="s">
+      <c r="F91" t="s">
+        <v>715</v>
+      </c>
+      <c r="G91" s="4" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>102</v>
       </c>
@@ -5230,28 +4744,22 @@
         <v>334</v>
       </c>
       <c r="C92" s="6" t="s">
+        <v>714</v>
+      </c>
+      <c r="D92" s="6" t="s">
         <v>96</v>
-      </c>
-      <c r="D92" s="6" t="s">
-        <v>23</v>
       </c>
       <c r="E92" s="4" t="s">
         <v>562</v>
       </c>
-      <c r="F92" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G92" t="b">
-        <v>0</v>
-      </c>
-      <c r="H92" t="b">
-        <v>0</v>
-      </c>
-      <c r="I92" s="4" t="s">
+      <c r="F92" t="s">
+        <v>699</v>
+      </c>
+      <c r="G92" s="4" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>103</v>
       </c>
@@ -5259,28 +4767,22 @@
         <v>335</v>
       </c>
       <c r="C93" s="6" t="s">
+        <v>714</v>
+      </c>
+      <c r="D93" s="6" t="s">
         <v>96</v>
-      </c>
-      <c r="D93" s="6" t="s">
-        <v>23</v>
       </c>
       <c r="E93" s="4" t="s">
         <v>563</v>
       </c>
-      <c r="F93" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G93" t="b">
-        <v>0</v>
-      </c>
-      <c r="H93" t="b">
-        <v>0</v>
-      </c>
-      <c r="I93" s="4" t="s">
+      <c r="F93" t="s">
+        <v>699</v>
+      </c>
+      <c r="G93" s="4" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>104</v>
       </c>
@@ -5288,28 +4790,22 @@
         <v>336</v>
       </c>
       <c r="C94" s="6" t="s">
+        <v>714</v>
+      </c>
+      <c r="D94" s="6" t="s">
         <v>96</v>
-      </c>
-      <c r="D94" s="6" t="s">
-        <v>23</v>
       </c>
       <c r="E94" s="4" t="s">
         <v>564</v>
       </c>
-      <c r="F94" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G94" t="b">
-        <v>0</v>
-      </c>
-      <c r="H94" t="b">
-        <v>0</v>
-      </c>
-      <c r="I94" s="4" t="s">
+      <c r="F94" t="s">
+        <v>699</v>
+      </c>
+      <c r="G94" s="4" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>105</v>
       </c>
@@ -5317,28 +4813,22 @@
         <v>337</v>
       </c>
       <c r="C95" s="6" t="s">
+        <v>714</v>
+      </c>
+      <c r="D95" s="6" t="s">
         <v>96</v>
-      </c>
-      <c r="D95" s="6" t="s">
-        <v>23</v>
       </c>
       <c r="E95" s="4" t="s">
         <v>565</v>
       </c>
-      <c r="F95" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G95" t="b">
-        <v>0</v>
-      </c>
-      <c r="H95" t="b">
-        <v>0</v>
-      </c>
-      <c r="I95" s="4" t="s">
+      <c r="F95" t="s">
+        <v>699</v>
+      </c>
+      <c r="G95" s="4" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
         <v>106</v>
       </c>
@@ -5346,28 +4836,22 @@
         <v>338</v>
       </c>
       <c r="C96" s="6" t="s">
+        <v>714</v>
+      </c>
+      <c r="D96" s="6" t="s">
         <v>96</v>
-      </c>
-      <c r="D96" s="6" t="s">
-        <v>23</v>
       </c>
       <c r="E96" s="4" t="s">
         <v>566</v>
       </c>
-      <c r="F96" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G96" t="b">
-        <v>0</v>
-      </c>
-      <c r="H96" t="b">
-        <v>0</v>
-      </c>
-      <c r="I96" s="4" t="s">
+      <c r="F96" t="s">
+        <v>699</v>
+      </c>
+      <c r="G96" s="4" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>107</v>
       </c>
@@ -5375,28 +4859,22 @@
         <v>339</v>
       </c>
       <c r="C97" s="6" t="s">
+        <v>714</v>
+      </c>
+      <c r="D97" s="6" t="s">
         <v>96</v>
-      </c>
-      <c r="D97" s="6" t="s">
-        <v>23</v>
       </c>
       <c r="E97" s="4" t="s">
         <v>567</v>
       </c>
-      <c r="F97" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G97" t="b">
-        <v>0</v>
-      </c>
-      <c r="H97" t="b">
-        <v>0</v>
-      </c>
-      <c r="I97" s="4" t="s">
+      <c r="F97" t="s">
+        <v>715</v>
+      </c>
+      <c r="G97" s="4" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>236</v>
       </c>
@@ -5404,28 +4882,22 @@
         <v>340</v>
       </c>
       <c r="C98" s="6" t="s">
+        <v>714</v>
+      </c>
+      <c r="D98" s="6" t="s">
         <v>96</v>
-      </c>
-      <c r="D98" s="6" t="s">
-        <v>23</v>
       </c>
       <c r="E98" s="4" t="s">
         <v>568</v>
       </c>
-      <c r="F98" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="G98" t="b">
-        <v>0</v>
-      </c>
-      <c r="H98" t="b">
-        <v>0</v>
-      </c>
-      <c r="I98" s="4" t="s">
+      <c r="F98" t="s">
+        <v>699</v>
+      </c>
+      <c r="G98" s="4" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
         <v>108</v>
       </c>
@@ -5433,28 +4905,22 @@
         <v>341</v>
       </c>
       <c r="C99" s="6" t="s">
+        <v>714</v>
+      </c>
+      <c r="D99" s="6" t="s">
         <v>96</v>
-      </c>
-      <c r="D99" s="6" t="s">
-        <v>23</v>
       </c>
       <c r="E99" s="4" t="s">
         <v>569</v>
       </c>
-      <c r="F99" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="G99" t="b">
-        <v>0</v>
-      </c>
-      <c r="H99" t="b">
-        <v>0</v>
-      </c>
-      <c r="I99" s="4" t="s">
+      <c r="F99" t="s">
+        <v>699</v>
+      </c>
+      <c r="G99" s="4" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="100" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
         <v>109</v>
       </c>
@@ -5462,28 +4928,22 @@
         <v>342</v>
       </c>
       <c r="C100" s="6" t="s">
+        <v>714</v>
+      </c>
+      <c r="D100" s="6" t="s">
         <v>110</v>
-      </c>
-      <c r="D100" s="6" t="s">
-        <v>23</v>
       </c>
       <c r="E100" s="4" t="s">
         <v>570</v>
       </c>
-      <c r="F100" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G100" t="b">
-        <v>1</v>
-      </c>
-      <c r="H100" t="b">
-        <v>0</v>
-      </c>
-      <c r="I100" s="4" t="s">
+      <c r="F100" t="s">
+        <v>715</v>
+      </c>
+      <c r="G100" s="4" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="101" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>237</v>
       </c>
@@ -5491,28 +4951,22 @@
         <v>343</v>
       </c>
       <c r="C101" s="6" t="s">
+        <v>714</v>
+      </c>
+      <c r="D101" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="D101" s="6" t="s">
-        <v>23</v>
       </c>
       <c r="E101" s="4" t="s">
         <v>571</v>
       </c>
-      <c r="F101" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G101" t="b">
-        <v>0</v>
-      </c>
-      <c r="H101" t="b">
-        <v>0</v>
-      </c>
-      <c r="I101" s="4" t="s">
+      <c r="F101" t="s">
+        <v>699</v>
+      </c>
+      <c r="G101" s="4" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="102" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
         <v>111</v>
       </c>
@@ -5520,28 +4974,22 @@
         <v>344</v>
       </c>
       <c r="C102" s="6" t="s">
+        <v>714</v>
+      </c>
+      <c r="D102" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="D102" s="6" t="s">
-        <v>23</v>
       </c>
       <c r="E102" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="F102" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G102" t="b">
-        <v>0</v>
-      </c>
-      <c r="H102" t="b">
-        <v>0</v>
-      </c>
-      <c r="I102" s="4" t="s">
+      <c r="F102" t="s">
+        <v>715</v>
+      </c>
+      <c r="G102" s="4" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="103" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
         <v>112</v>
       </c>
@@ -5549,28 +4997,22 @@
         <v>242</v>
       </c>
       <c r="C103" s="6" t="s">
+        <v>714</v>
+      </c>
+      <c r="D103" s="6" t="s">
         <v>113</v>
-      </c>
-      <c r="D103" s="6" t="s">
-        <v>23</v>
       </c>
       <c r="E103" s="4" t="s">
         <v>573</v>
       </c>
-      <c r="F103" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G103" t="b">
-        <v>0</v>
-      </c>
-      <c r="H103" t="b">
-        <v>0</v>
-      </c>
-      <c r="I103" s="4" t="s">
+      <c r="F103" t="s">
+        <v>699</v>
+      </c>
+      <c r="G103" s="4" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="104" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
         <v>114</v>
       </c>
@@ -5578,28 +5020,22 @@
         <v>345</v>
       </c>
       <c r="C104" s="6" t="s">
+        <v>714</v>
+      </c>
+      <c r="D104" s="6" t="s">
         <v>113</v>
-      </c>
-      <c r="D104" s="6" t="s">
-        <v>23</v>
       </c>
       <c r="E104" s="4" t="s">
         <v>574</v>
       </c>
-      <c r="F104" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G104" t="b">
-        <v>0</v>
-      </c>
-      <c r="H104" t="b">
-        <v>0</v>
-      </c>
-      <c r="I104" s="4" t="s">
+      <c r="F104" t="s">
+        <v>715</v>
+      </c>
+      <c r="G104" s="4" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="105" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
         <v>115</v>
       </c>
@@ -5607,28 +5043,22 @@
         <v>346</v>
       </c>
       <c r="C105" s="6" t="s">
+        <v>714</v>
+      </c>
+      <c r="D105" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="D105" s="6" t="s">
-        <v>23</v>
       </c>
       <c r="E105" s="4" t="s">
         <v>575</v>
       </c>
-      <c r="F105" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G105" t="b">
-        <v>1</v>
-      </c>
-      <c r="H105" t="b">
-        <v>0</v>
-      </c>
-      <c r="I105" s="4" t="s">
+      <c r="F105" t="s">
+        <v>699</v>
+      </c>
+      <c r="G105" s="4" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="106" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
         <v>116</v>
       </c>
@@ -5636,28 +5066,22 @@
         <v>347</v>
       </c>
       <c r="C106" s="6" t="s">
+        <v>714</v>
+      </c>
+      <c r="D106" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="D106" s="6" t="s">
-        <v>23</v>
       </c>
       <c r="E106" s="4" t="s">
         <v>576</v>
       </c>
-      <c r="F106" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G106" t="b">
-        <v>0</v>
-      </c>
-      <c r="H106" t="b">
-        <v>0</v>
-      </c>
-      <c r="I106" s="4" t="s">
+      <c r="F106" t="s">
+        <v>699</v>
+      </c>
+      <c r="G106" s="4" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="107" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
         <v>117</v>
       </c>
@@ -5665,28 +5089,22 @@
         <v>348</v>
       </c>
       <c r="C107" s="6" t="s">
+        <v>714</v>
+      </c>
+      <c r="D107" s="6" t="s">
         <v>113</v>
-      </c>
-      <c r="D107" s="6" t="s">
-        <v>23</v>
       </c>
       <c r="E107" s="4" t="s">
         <v>577</v>
       </c>
-      <c r="F107" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G107" t="b">
-        <v>0</v>
-      </c>
-      <c r="H107" t="b">
-        <v>0</v>
-      </c>
-      <c r="I107" s="4" t="s">
+      <c r="F107" t="s">
+        <v>699</v>
+      </c>
+      <c r="G107" s="4" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="108" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
         <v>118</v>
       </c>
@@ -5694,28 +5112,22 @@
         <v>349</v>
       </c>
       <c r="C108" s="6" t="s">
+        <v>714</v>
+      </c>
+      <c r="D108" s="6" t="s">
         <v>113</v>
-      </c>
-      <c r="D108" s="6" t="s">
-        <v>23</v>
       </c>
       <c r="E108" s="4" t="s">
         <v>578</v>
       </c>
-      <c r="F108" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G108" t="b">
-        <v>0</v>
-      </c>
-      <c r="H108" t="b">
-        <v>0</v>
-      </c>
-      <c r="I108" s="4" t="s">
+      <c r="F108" t="s">
+        <v>699</v>
+      </c>
+      <c r="G108" s="4" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="109" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
         <v>119</v>
       </c>
@@ -5723,28 +5135,22 @@
         <v>350</v>
       </c>
       <c r="C109" s="6" t="s">
+        <v>714</v>
+      </c>
+      <c r="D109" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="D109" s="6" t="s">
-        <v>23</v>
       </c>
       <c r="E109" s="4" t="s">
         <v>579</v>
       </c>
-      <c r="F109" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G109" t="b">
-        <v>0</v>
-      </c>
-      <c r="H109" t="b">
-        <v>0</v>
-      </c>
-      <c r="I109" s="4" t="s">
+      <c r="F109" t="s">
+        <v>699</v>
+      </c>
+      <c r="G109" s="4" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="110" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
         <v>120</v>
       </c>
@@ -5752,29 +5158,22 @@
         <v>351</v>
       </c>
       <c r="C110" s="6" t="s">
+        <v>714</v>
+      </c>
+      <c r="D110" s="6" t="s">
         <v>110</v>
-      </c>
-      <c r="D110" s="6" t="s">
-        <v>23</v>
       </c>
       <c r="E110" s="4" t="s">
         <v>580</v>
       </c>
-      <c r="F110" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G110" t="b">
-        <v>0</v>
-      </c>
-      <c r="H110" t="b">
-        <v>0</v>
-      </c>
-      <c r="I110" s="4" t="s">
+      <c r="F110" t="s">
+        <v>699</v>
+      </c>
+      <c r="G110" s="4" t="s">
         <v>580</v>
       </c>
-      <c r="J110" s="14"/>
-    </row>
-    <row r="111" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
         <v>121</v>
       </c>
@@ -5782,28 +5181,22 @@
         <v>352</v>
       </c>
       <c r="C111" s="6" t="s">
+        <v>714</v>
+      </c>
+      <c r="D111" s="6" t="s">
         <v>110</v>
-      </c>
-      <c r="D111" s="6" t="s">
-        <v>23</v>
       </c>
       <c r="E111" s="4" t="s">
         <v>581</v>
       </c>
-      <c r="F111" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G111" t="b">
-        <v>1</v>
-      </c>
-      <c r="H111" t="b">
-        <v>0</v>
-      </c>
-      <c r="I111" s="4" t="s">
+      <c r="F111" t="s">
+        <v>699</v>
+      </c>
+      <c r="G111" s="4" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="112" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
         <v>122</v>
       </c>
@@ -5811,28 +5204,22 @@
         <v>353</v>
       </c>
       <c r="C112" s="6" t="s">
+        <v>714</v>
+      </c>
+      <c r="D112" s="6" t="s">
         <v>110</v>
-      </c>
-      <c r="D112" s="6" t="s">
-        <v>23</v>
       </c>
       <c r="E112" s="4" t="s">
         <v>582</v>
       </c>
-      <c r="F112" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G112" t="b">
-        <v>0</v>
-      </c>
-      <c r="H112" t="b">
-        <v>0</v>
-      </c>
-      <c r="I112" s="4" t="s">
+      <c r="F112" t="s">
+        <v>699</v>
+      </c>
+      <c r="G112" s="4" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="113" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
         <v>123</v>
       </c>
@@ -5840,57 +5227,45 @@
         <v>354</v>
       </c>
       <c r="C113" s="6" t="s">
+        <v>714</v>
+      </c>
+      <c r="D113" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="D113" s="6" t="s">
-        <v>23</v>
       </c>
       <c r="E113" s="4" t="s">
         <v>583</v>
       </c>
-      <c r="F113" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="G113" t="b">
-        <v>0</v>
-      </c>
-      <c r="H113" t="b">
-        <v>0</v>
-      </c>
-      <c r="I113" s="4" t="s">
+      <c r="F113" t="s">
+        <v>699</v>
+      </c>
+      <c r="G113" s="4" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="114" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A114" s="7" t="s">
         <v>124</v>
       </c>
       <c r="B114" s="8" t="s">
         <v>355</v>
       </c>
-      <c r="C114" s="8" t="s">
+      <c r="C114" s="6" t="s">
+        <v>714</v>
+      </c>
+      <c r="D114" s="8" t="s">
         <v>113</v>
-      </c>
-      <c r="D114" s="6" t="s">
-        <v>23</v>
       </c>
       <c r="E114" s="4" t="s">
         <v>584</v>
       </c>
-      <c r="F114" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="G114" t="b">
-        <v>0</v>
-      </c>
-      <c r="H114" t="b">
-        <v>0</v>
-      </c>
-      <c r="I114" s="4" t="s">
+      <c r="F114" t="s">
+        <v>699</v>
+      </c>
+      <c r="G114" s="4" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="115" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
         <v>125</v>
       </c>
@@ -5906,20 +5281,14 @@
       <c r="E115" s="4" t="s">
         <v>585</v>
       </c>
-      <c r="F115" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G115" t="b">
-        <v>1</v>
-      </c>
-      <c r="H115" t="b">
-        <v>0</v>
-      </c>
-      <c r="I115" s="4" t="s">
+      <c r="F115" t="s">
+        <v>715</v>
+      </c>
+      <c r="G115" s="4" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="116" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
         <v>127</v>
       </c>
@@ -5935,20 +5304,14 @@
       <c r="E116" s="4" t="s">
         <v>586</v>
       </c>
-      <c r="F116" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G116" t="b">
-        <v>0</v>
-      </c>
-      <c r="H116" t="b">
-        <v>0</v>
-      </c>
-      <c r="I116" s="4" t="s">
+      <c r="F116" t="s">
+        <v>699</v>
+      </c>
+      <c r="G116" s="4" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="117" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
         <v>128</v>
       </c>
@@ -5964,21 +5327,14 @@
       <c r="E117" s="4" t="s">
         <v>587</v>
       </c>
-      <c r="F117" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G117" t="b">
-        <v>0</v>
-      </c>
-      <c r="H117" t="b">
-        <v>0</v>
-      </c>
-      <c r="I117" s="4" t="s">
+      <c r="F117" t="s">
+        <v>699</v>
+      </c>
+      <c r="G117" s="4" t="s">
         <v>587</v>
       </c>
-      <c r="J117" s="14"/>
-    </row>
-    <row r="118" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
         <v>238</v>
       </c>
@@ -5994,20 +5350,14 @@
       <c r="E118" s="4" t="s">
         <v>588</v>
       </c>
-      <c r="F118" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G118" t="b">
-        <v>0</v>
-      </c>
-      <c r="H118" t="b">
-        <v>0</v>
-      </c>
-      <c r="I118" s="4" t="s">
+      <c r="F118" t="s">
+        <v>699</v>
+      </c>
+      <c r="G118" s="4" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="119" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
         <v>129</v>
       </c>
@@ -6023,20 +5373,14 @@
       <c r="E119" s="4" t="s">
         <v>589</v>
       </c>
-      <c r="F119" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G119" t="b">
-        <v>0</v>
-      </c>
-      <c r="H119" t="b">
-        <v>0</v>
-      </c>
-      <c r="I119" s="4" t="s">
+      <c r="F119" t="s">
+        <v>699</v>
+      </c>
+      <c r="G119" s="4" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="120" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
         <v>130</v>
       </c>
@@ -6052,20 +5396,14 @@
       <c r="E120" s="4" t="s">
         <v>470</v>
       </c>
-      <c r="F120" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G120" t="b">
-        <v>0</v>
-      </c>
-      <c r="H120" t="b">
-        <v>0</v>
-      </c>
-      <c r="I120" s="4" t="s">
+      <c r="F120" t="s">
+        <v>699</v>
+      </c>
+      <c r="G120" s="4" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="121" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
         <v>131</v>
       </c>
@@ -6081,20 +5419,14 @@
       <c r="E121" s="4" t="s">
         <v>590</v>
       </c>
-      <c r="F121" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G121" t="b">
-        <v>0</v>
-      </c>
-      <c r="H121" t="b">
-        <v>0</v>
-      </c>
-      <c r="I121" s="4" t="s">
+      <c r="F121" t="s">
+        <v>699</v>
+      </c>
+      <c r="G121" s="4" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="122" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
         <v>132</v>
       </c>
@@ -6110,20 +5442,14 @@
       <c r="E122" s="4" t="s">
         <v>591</v>
       </c>
-      <c r="F122" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G122" t="b">
-        <v>0</v>
-      </c>
-      <c r="H122" t="b">
-        <v>0</v>
-      </c>
-      <c r="I122" s="4" t="s">
+      <c r="F122" t="s">
+        <v>699</v>
+      </c>
+      <c r="G122" s="4" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="123" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
         <v>133</v>
       </c>
@@ -6139,20 +5465,14 @@
       <c r="E123" s="4" t="s">
         <v>592</v>
       </c>
-      <c r="F123" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G123" t="b">
-        <v>0</v>
-      </c>
-      <c r="H123" t="b">
-        <v>0</v>
-      </c>
-      <c r="I123" s="4" t="s">
+      <c r="F123" t="s">
+        <v>699</v>
+      </c>
+      <c r="G123" s="4" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="124" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
         <v>134</v>
       </c>
@@ -6168,20 +5488,14 @@
       <c r="E124" s="4" t="s">
         <v>593</v>
       </c>
-      <c r="F124" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G124" t="b">
-        <v>0</v>
-      </c>
-      <c r="H124" t="b">
-        <v>0</v>
-      </c>
-      <c r="I124" s="4" t="s">
+      <c r="F124" t="s">
+        <v>699</v>
+      </c>
+      <c r="G124" s="4" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="125" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
         <v>135</v>
       </c>
@@ -6197,20 +5511,14 @@
       <c r="E125" s="4" t="s">
         <v>594</v>
       </c>
-      <c r="F125" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G125" t="b">
-        <v>0</v>
-      </c>
-      <c r="H125" t="b">
-        <v>0</v>
-      </c>
-      <c r="I125" s="4" t="s">
+      <c r="F125" t="s">
+        <v>699</v>
+      </c>
+      <c r="G125" s="4" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="126" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
         <v>136</v>
       </c>
@@ -6226,20 +5534,14 @@
       <c r="E126" s="4" t="s">
         <v>595</v>
       </c>
-      <c r="F126" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G126" t="b">
-        <v>1</v>
-      </c>
-      <c r="H126" t="b">
-        <v>0</v>
-      </c>
-      <c r="I126" s="4" t="s">
+      <c r="F126" t="s">
+        <v>715</v>
+      </c>
+      <c r="G126" s="4" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="127" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
         <v>137</v>
       </c>
@@ -6255,20 +5557,14 @@
       <c r="E127" s="4" t="s">
         <v>596</v>
       </c>
-      <c r="F127" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="G127" t="b">
-        <v>0</v>
-      </c>
-      <c r="H127" t="b">
-        <v>0</v>
-      </c>
-      <c r="I127" s="4" t="s">
+      <c r="F127" t="s">
+        <v>699</v>
+      </c>
+      <c r="G127" s="4" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="128" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A128" s="7" t="s">
         <v>138</v>
       </c>
@@ -6284,20 +5580,14 @@
       <c r="E128" s="4" t="s">
         <v>597</v>
       </c>
-      <c r="F128" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="G128" t="b">
-        <v>0</v>
-      </c>
-      <c r="H128" t="b">
-        <v>0</v>
-      </c>
-      <c r="I128" s="4" t="s">
+      <c r="F128" t="s">
+        <v>699</v>
+      </c>
+      <c r="G128" s="4" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="129" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
         <v>139</v>
       </c>
@@ -6313,20 +5603,14 @@
       <c r="E129" s="4" t="s">
         <v>598</v>
       </c>
-      <c r="F129" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G129" t="b">
-        <v>1</v>
-      </c>
-      <c r="H129" t="b">
-        <v>0</v>
-      </c>
-      <c r="I129" s="4" t="s">
+      <c r="F129" t="s">
+        <v>715</v>
+      </c>
+      <c r="G129" s="4" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="130" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
         <v>140</v>
       </c>
@@ -6342,21 +5626,14 @@
       <c r="E130" s="4" t="s">
         <v>599</v>
       </c>
-      <c r="F130" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G130" t="b">
-        <v>0</v>
-      </c>
-      <c r="H130" t="b">
-        <v>0</v>
-      </c>
-      <c r="I130" s="4" t="s">
+      <c r="F130" t="s">
+        <v>699</v>
+      </c>
+      <c r="G130" s="4" t="s">
         <v>599</v>
       </c>
-      <c r="J130" s="14"/>
-    </row>
-    <row r="131" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="131" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
         <v>141</v>
       </c>
@@ -6372,20 +5649,14 @@
       <c r="E131" s="4" t="s">
         <v>600</v>
       </c>
-      <c r="F131" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G131" t="b">
-        <v>0</v>
-      </c>
-      <c r="H131" t="b">
-        <v>0</v>
-      </c>
-      <c r="I131" s="4" t="s">
+      <c r="F131" t="s">
+        <v>699</v>
+      </c>
+      <c r="G131" s="4" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="132" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
         <v>240</v>
       </c>
@@ -6401,20 +5672,14 @@
       <c r="E132" s="4" t="s">
         <v>601</v>
       </c>
-      <c r="F132" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G132" t="b">
-        <v>0</v>
-      </c>
-      <c r="H132" t="b">
-        <v>0</v>
-      </c>
-      <c r="I132" s="4" t="s">
+      <c r="F132" t="s">
+        <v>699</v>
+      </c>
+      <c r="G132" s="4" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="133" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
         <v>142</v>
       </c>
@@ -6430,20 +5695,14 @@
       <c r="E133" s="4" t="s">
         <v>602</v>
       </c>
-      <c r="F133" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G133" t="b">
-        <v>0</v>
-      </c>
-      <c r="H133" t="b">
-        <v>0</v>
-      </c>
-      <c r="I133" s="4" t="s">
+      <c r="F133" t="s">
+        <v>699</v>
+      </c>
+      <c r="G133" s="4" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="134" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
         <v>143</v>
       </c>
@@ -6459,20 +5718,14 @@
       <c r="E134" s="4" t="s">
         <v>603</v>
       </c>
-      <c r="F134" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G134" t="b">
-        <v>0</v>
-      </c>
-      <c r="H134" t="b">
-        <v>0</v>
-      </c>
-      <c r="I134" s="4" t="s">
+      <c r="F134" t="s">
+        <v>699</v>
+      </c>
+      <c r="G134" s="4" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="135" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
         <v>144</v>
       </c>
@@ -6488,20 +5741,14 @@
       <c r="E135" s="4" t="s">
         <v>604</v>
       </c>
-      <c r="F135" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G135" t="b">
-        <v>0</v>
-      </c>
-      <c r="H135" t="b">
-        <v>0</v>
-      </c>
-      <c r="I135" s="4" t="s">
+      <c r="F135" t="s">
+        <v>699</v>
+      </c>
+      <c r="G135" s="4" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="136" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A136" s="5" t="s">
         <v>145</v>
       </c>
@@ -6517,20 +5764,14 @@
       <c r="E136" s="4" t="s">
         <v>605</v>
       </c>
-      <c r="F136" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G136" t="b">
-        <v>0</v>
-      </c>
-      <c r="H136" t="b">
-        <v>0</v>
-      </c>
-      <c r="I136" s="4" t="s">
+      <c r="F136" t="s">
+        <v>699</v>
+      </c>
+      <c r="G136" s="4" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="137" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
         <v>146</v>
       </c>
@@ -6546,20 +5787,14 @@
       <c r="E137" s="4" t="s">
         <v>606</v>
       </c>
-      <c r="F137" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G137" t="b">
-        <v>0</v>
-      </c>
-      <c r="H137" t="b">
-        <v>0</v>
-      </c>
-      <c r="I137" s="4" t="s">
+      <c r="F137" t="s">
+        <v>699</v>
+      </c>
+      <c r="G137" s="4" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="138" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A138" s="5" t="s">
         <v>147</v>
       </c>
@@ -6575,20 +5810,14 @@
       <c r="E138" s="4" t="s">
         <v>607</v>
       </c>
-      <c r="F138" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G138" t="b">
-        <v>0</v>
-      </c>
-      <c r="H138" t="b">
-        <v>0</v>
-      </c>
-      <c r="I138" s="4" t="s">
+      <c r="F138" t="s">
+        <v>699</v>
+      </c>
+      <c r="G138" s="4" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="139" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A139" s="5" t="s">
         <v>148</v>
       </c>
@@ -6604,20 +5833,14 @@
       <c r="E139" s="4" t="s">
         <v>608</v>
       </c>
-      <c r="F139" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G139" t="b">
-        <v>0</v>
-      </c>
-      <c r="H139" t="b">
-        <v>0</v>
-      </c>
-      <c r="I139" s="4" t="s">
+      <c r="F139" t="s">
+        <v>699</v>
+      </c>
+      <c r="G139" s="4" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="140" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A140" s="5" t="s">
         <v>149</v>
       </c>
@@ -6633,20 +5856,14 @@
       <c r="E140" s="4" t="s">
         <v>609</v>
       </c>
-      <c r="F140" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G140" t="b">
-        <v>1</v>
-      </c>
-      <c r="H140" t="b">
-        <v>0</v>
-      </c>
-      <c r="I140" s="4" t="s">
+      <c r="F140" t="s">
+        <v>715</v>
+      </c>
+      <c r="G140" s="4" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="141" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="s">
         <v>150</v>
       </c>
@@ -6662,20 +5879,14 @@
       <c r="E141" s="4" t="s">
         <v>610</v>
       </c>
-      <c r="F141" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="G141" t="b">
-        <v>0</v>
-      </c>
-      <c r="H141" t="b">
-        <v>0</v>
-      </c>
-      <c r="I141" s="4" t="s">
+      <c r="F141" t="s">
+        <v>699</v>
+      </c>
+      <c r="G141" s="4" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="142" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A142" s="5" t="s">
         <v>239</v>
       </c>
@@ -6691,20 +5902,14 @@
       <c r="E142" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="F142" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G142" t="b">
-        <v>0</v>
-      </c>
-      <c r="H142" t="b">
-        <v>0</v>
-      </c>
-      <c r="I142" s="4" t="s">
+      <c r="F142" t="s">
+        <v>699</v>
+      </c>
+      <c r="G142" s="4" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="143" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
         <v>151</v>
       </c>
@@ -6720,20 +5925,14 @@
       <c r="E143" s="4" t="s">
         <v>612</v>
       </c>
-      <c r="F143" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G143" t="b">
-        <v>1</v>
-      </c>
-      <c r="H143" t="b">
-        <v>0</v>
-      </c>
-      <c r="I143" s="4" t="s">
+      <c r="F143" t="s">
+        <v>715</v>
+      </c>
+      <c r="G143" s="4" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="144" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A144" s="5" t="s">
         <v>152</v>
       </c>
@@ -6749,20 +5948,14 @@
       <c r="E144" s="4" t="s">
         <v>613</v>
       </c>
-      <c r="F144" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G144" t="b">
-        <v>0</v>
-      </c>
-      <c r="H144" t="b">
-        <v>0</v>
-      </c>
-      <c r="I144" s="4" t="s">
+      <c r="F144" t="s">
+        <v>699</v>
+      </c>
+      <c r="G144" s="4" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="145" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="s">
         <v>153</v>
       </c>
@@ -6778,20 +5971,14 @@
       <c r="E145" s="4" t="s">
         <v>614</v>
       </c>
-      <c r="F145" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G145" t="b">
-        <v>0</v>
-      </c>
-      <c r="H145" t="b">
-        <v>0</v>
-      </c>
-      <c r="I145" s="4" t="s">
+      <c r="F145" t="s">
+        <v>699</v>
+      </c>
+      <c r="G145" s="4" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="146" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A146" s="5" t="s">
         <v>154</v>
       </c>
@@ -6807,20 +5994,14 @@
       <c r="E146" s="4" t="s">
         <v>615</v>
       </c>
-      <c r="F146" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G146" t="b">
-        <v>0</v>
-      </c>
-      <c r="H146" t="b">
-        <v>0</v>
-      </c>
-      <c r="I146" s="4" t="s">
+      <c r="F146" t="s">
+        <v>699</v>
+      </c>
+      <c r="G146" s="4" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="147" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
         <v>155</v>
       </c>
@@ -6836,20 +6017,14 @@
       <c r="E147" s="4" t="s">
         <v>616</v>
       </c>
-      <c r="F147" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G147" t="b">
-        <v>0</v>
-      </c>
-      <c r="H147" t="b">
-        <v>0</v>
-      </c>
-      <c r="I147" s="4" t="s">
+      <c r="F147" t="s">
+        <v>699</v>
+      </c>
+      <c r="G147" s="4" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="148" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
         <v>156</v>
       </c>
@@ -6865,20 +6040,14 @@
       <c r="E148" s="4" t="s">
         <v>617</v>
       </c>
-      <c r="F148" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G148" t="b">
-        <v>0</v>
-      </c>
-      <c r="H148" t="b">
-        <v>0</v>
-      </c>
-      <c r="I148" s="4" t="s">
+      <c r="F148" t="s">
+        <v>699</v>
+      </c>
+      <c r="G148" s="4" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="149" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
         <v>157</v>
       </c>
@@ -6894,20 +6063,14 @@
       <c r="E149" s="4" t="s">
         <v>618</v>
       </c>
-      <c r="F149" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G149" t="b">
-        <v>0</v>
-      </c>
-      <c r="H149" t="b">
-        <v>0</v>
-      </c>
-      <c r="I149" s="4" t="s">
+      <c r="F149" t="s">
+        <v>699</v>
+      </c>
+      <c r="G149" s="4" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="150" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A150" s="5" t="s">
         <v>158</v>
       </c>
@@ -6923,21 +6086,14 @@
       <c r="E150" s="4" t="s">
         <v>619</v>
       </c>
-      <c r="F150" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G150" t="b">
-        <v>0</v>
-      </c>
-      <c r="H150" t="b">
-        <v>0</v>
-      </c>
-      <c r="I150" s="4" t="s">
+      <c r="F150" t="s">
+        <v>699</v>
+      </c>
+      <c r="G150" s="4" t="s">
         <v>619</v>
       </c>
-      <c r="J150" s="14"/>
-    </row>
-    <row r="151" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="151" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A151" s="5" t="s">
         <v>159</v>
       </c>
@@ -6953,20 +6109,14 @@
       <c r="E151" s="4" t="s">
         <v>620</v>
       </c>
-      <c r="F151" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="G151" t="b">
-        <v>0</v>
-      </c>
-      <c r="H151" t="b">
-        <v>0</v>
-      </c>
-      <c r="I151" s="4" t="s">
+      <c r="F151" t="s">
+        <v>699</v>
+      </c>
+      <c r="G151" s="4" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="152" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A152" s="5" t="s">
         <v>160</v>
       </c>
@@ -6982,20 +6132,14 @@
       <c r="E152" s="4" t="s">
         <v>621</v>
       </c>
-      <c r="F152" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G152" t="b">
-        <v>0</v>
-      </c>
-      <c r="H152" t="b">
-        <v>0</v>
-      </c>
-      <c r="I152" s="4" t="s">
+      <c r="F152" t="s">
+        <v>699</v>
+      </c>
+      <c r="G152" s="4" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="153" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A153" s="5" t="s">
         <v>161</v>
       </c>
@@ -7011,20 +6155,14 @@
       <c r="E153" s="4" t="s">
         <v>622</v>
       </c>
-      <c r="F153" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G153" t="b">
-        <v>0</v>
-      </c>
-      <c r="H153" t="b">
-        <v>0</v>
-      </c>
-      <c r="I153" s="4" t="s">
+      <c r="F153" t="s">
+        <v>699</v>
+      </c>
+      <c r="G153" s="4" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="154" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A154" s="5" t="s">
         <v>162</v>
       </c>
@@ -7040,20 +6178,14 @@
       <c r="E154" s="4" t="s">
         <v>623</v>
       </c>
-      <c r="F154" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G154" t="b">
-        <v>1</v>
-      </c>
-      <c r="H154" t="b">
-        <v>0</v>
-      </c>
-      <c r="I154" s="4" t="s">
+      <c r="F154" t="s">
+        <v>715</v>
+      </c>
+      <c r="G154" s="4" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="155" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
         <v>163</v>
       </c>
@@ -7069,20 +6201,14 @@
       <c r="E155" s="4" t="s">
         <v>624</v>
       </c>
-      <c r="F155" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G155" t="b">
-        <v>0</v>
-      </c>
-      <c r="H155" t="b">
-        <v>0</v>
-      </c>
-      <c r="I155" s="4" t="s">
+      <c r="F155" t="s">
+        <v>699</v>
+      </c>
+      <c r="G155" s="4" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="156" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A156" s="7" t="s">
         <v>164</v>
       </c>
@@ -7098,20 +6224,14 @@
       <c r="E156" s="4" t="s">
         <v>625</v>
       </c>
-      <c r="F156" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="G156" t="b">
-        <v>0</v>
-      </c>
-      <c r="H156" t="b">
-        <v>0</v>
-      </c>
-      <c r="I156" s="4" t="s">
+      <c r="F156" t="s">
+        <v>699</v>
+      </c>
+      <c r="G156" s="4" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="157" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
         <v>165</v>
       </c>
@@ -7127,20 +6247,14 @@
       <c r="E157" s="4" t="s">
         <v>626</v>
       </c>
-      <c r="F157" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G157" t="b">
-        <v>1</v>
-      </c>
-      <c r="H157" t="b">
-        <v>0</v>
-      </c>
-      <c r="I157" s="4" t="s">
+      <c r="F157" t="s">
+        <v>715</v>
+      </c>
+      <c r="G157" s="4" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="158" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A158" s="5" t="s">
         <v>166</v>
       </c>
@@ -7156,20 +6270,14 @@
       <c r="E158" s="4" t="s">
         <v>627</v>
       </c>
-      <c r="F158" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G158" t="b">
-        <v>0</v>
-      </c>
-      <c r="H158" t="b">
-        <v>0</v>
-      </c>
-      <c r="I158" s="4" t="s">
+      <c r="F158" t="s">
+        <v>699</v>
+      </c>
+      <c r="G158" s="4" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="159" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A159" s="5" t="s">
         <v>167</v>
       </c>
@@ -7185,21 +6293,14 @@
       <c r="E159" s="4" t="s">
         <v>628</v>
       </c>
-      <c r="F159" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G159" t="b">
-        <v>0</v>
-      </c>
-      <c r="H159" t="b">
-        <v>0</v>
-      </c>
-      <c r="I159" s="4" t="s">
+      <c r="F159" t="s">
+        <v>699</v>
+      </c>
+      <c r="G159" s="4" t="s">
         <v>628</v>
       </c>
-      <c r="J159" s="14"/>
-    </row>
-    <row r="160" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="160" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A160" s="5" t="s">
         <v>168</v>
       </c>
@@ -7215,20 +6316,14 @@
       <c r="E160" s="4" t="s">
         <v>471</v>
       </c>
-      <c r="F160" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G160" t="b">
-        <v>0</v>
-      </c>
-      <c r="H160" t="b">
-        <v>0</v>
-      </c>
-      <c r="I160" s="4" t="s">
+      <c r="F160" t="s">
+        <v>699</v>
+      </c>
+      <c r="G160" s="4" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="161" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A161" s="5" t="s">
         <v>169</v>
       </c>
@@ -7244,20 +6339,14 @@
       <c r="E161" s="4" t="s">
         <v>629</v>
       </c>
-      <c r="F161" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G161" t="b">
-        <v>0</v>
-      </c>
-      <c r="H161" t="b">
-        <v>0</v>
-      </c>
-      <c r="I161" s="4" t="s">
+      <c r="F161" t="s">
+        <v>699</v>
+      </c>
+      <c r="G161" s="4" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="162" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A162" s="5" t="s">
         <v>170</v>
       </c>
@@ -7273,20 +6362,14 @@
       <c r="E162" s="4" t="s">
         <v>630</v>
       </c>
-      <c r="F162" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G162" t="b">
-        <v>0</v>
-      </c>
-      <c r="H162" t="b">
-        <v>0</v>
-      </c>
-      <c r="I162" s="4" t="s">
+      <c r="F162" t="s">
+        <v>699</v>
+      </c>
+      <c r="G162" s="4" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="163" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
         <v>171</v>
       </c>
@@ -7302,20 +6385,14 @@
       <c r="E163" s="4" t="s">
         <v>631</v>
       </c>
-      <c r="F163" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G163" t="b">
-        <v>0</v>
-      </c>
-      <c r="H163" t="b">
-        <v>0</v>
-      </c>
-      <c r="I163" s="4" t="s">
+      <c r="F163" t="s">
+        <v>699</v>
+      </c>
+      <c r="G163" s="4" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="164" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A164" s="5" t="s">
         <v>172</v>
       </c>
@@ -7331,20 +6408,14 @@
       <c r="E164" s="4" t="s">
         <v>632</v>
       </c>
-      <c r="F164" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G164" t="b">
-        <v>0</v>
-      </c>
-      <c r="H164" t="b">
-        <v>0</v>
-      </c>
-      <c r="I164" s="4" t="s">
+      <c r="F164" t="s">
+        <v>699</v>
+      </c>
+      <c r="G164" s="4" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="165" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A165" s="5" t="s">
         <v>241</v>
       </c>
@@ -7360,20 +6431,14 @@
       <c r="E165" s="4" t="s">
         <v>633</v>
       </c>
-      <c r="F165" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G165" t="b">
-        <v>0</v>
-      </c>
-      <c r="H165" t="b">
-        <v>0</v>
-      </c>
-      <c r="I165" s="4" t="s">
+      <c r="F165" t="s">
+        <v>699</v>
+      </c>
+      <c r="G165" s="4" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="166" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="s">
         <v>173</v>
       </c>
@@ -7389,20 +6454,14 @@
       <c r="E166" s="4" t="s">
         <v>634</v>
       </c>
-      <c r="F166" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G166" t="b">
-        <v>0</v>
-      </c>
-      <c r="H166" t="b">
-        <v>0</v>
-      </c>
-      <c r="I166" s="4" t="s">
+      <c r="F166" t="s">
+        <v>699</v>
+      </c>
+      <c r="G166" s="4" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="167" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A167" s="5" t="s">
         <v>174</v>
       </c>
@@ -7418,20 +6477,14 @@
       <c r="E167" s="4" t="s">
         <v>635</v>
       </c>
-      <c r="F167" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G167" t="b">
-        <v>0</v>
-      </c>
-      <c r="H167" t="b">
-        <v>0</v>
-      </c>
-      <c r="I167" s="4" t="s">
+      <c r="F167" t="s">
+        <v>699</v>
+      </c>
+      <c r="G167" s="4" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="168" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A168" s="5" t="s">
         <v>175</v>
       </c>
@@ -7447,20 +6500,14 @@
       <c r="E168" s="4" t="s">
         <v>636</v>
       </c>
-      <c r="F168" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G168" t="b">
-        <v>1</v>
-      </c>
-      <c r="H168" t="b">
-        <v>0</v>
-      </c>
-      <c r="I168" s="4" t="s">
+      <c r="F168" t="s">
+        <v>715</v>
+      </c>
+      <c r="G168" s="4" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="169" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A169" s="5" t="s">
         <v>176</v>
       </c>
@@ -7476,20 +6523,14 @@
       <c r="E169" s="4" t="s">
         <v>637</v>
       </c>
-      <c r="F169" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="G169" t="b">
-        <v>0</v>
-      </c>
-      <c r="H169" t="b">
-        <v>0</v>
-      </c>
-      <c r="I169" s="4" t="s">
+      <c r="F169" t="s">
+        <v>699</v>
+      </c>
+      <c r="G169" s="4" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="170" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A170" s="7" t="s">
         <v>177</v>
       </c>
@@ -7505,20 +6546,14 @@
       <c r="E170" s="4" t="s">
         <v>638</v>
       </c>
-      <c r="F170" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="G170" t="b">
-        <v>0</v>
-      </c>
-      <c r="H170" t="b">
-        <v>0</v>
-      </c>
-      <c r="I170" s="4" t="s">
+      <c r="F170" t="s">
+        <v>699</v>
+      </c>
+      <c r="G170" s="4" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="171" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
         <v>178</v>
       </c>
@@ -7534,20 +6569,14 @@
       <c r="E171" s="4" t="s">
         <v>639</v>
       </c>
-      <c r="F171" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G171" t="b">
-        <v>1</v>
-      </c>
-      <c r="H171" t="b">
-        <v>0</v>
-      </c>
-      <c r="I171" s="4" t="s">
+      <c r="F171" t="s">
+        <v>715</v>
+      </c>
+      <c r="G171" s="4" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="172" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A172" s="5" t="s">
         <v>179</v>
       </c>
@@ -7563,21 +6592,14 @@
       <c r="E172" s="4" t="s">
         <v>640</v>
       </c>
-      <c r="F172" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G172" t="b">
-        <v>0</v>
-      </c>
-      <c r="H172" t="b">
-        <v>0</v>
-      </c>
-      <c r="I172" s="4" t="s">
+      <c r="F172" t="s">
+        <v>699</v>
+      </c>
+      <c r="G172" s="4" t="s">
         <v>640</v>
       </c>
-      <c r="J172" s="14"/>
-    </row>
-    <row r="173" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="173" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A173" s="5" t="s">
         <v>180</v>
       </c>
@@ -7593,20 +6615,14 @@
       <c r="E173" s="4" t="s">
         <v>641</v>
       </c>
-      <c r="F173" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G173" t="b">
-        <v>0</v>
-      </c>
-      <c r="H173" t="b">
-        <v>0</v>
-      </c>
-      <c r="I173" s="4" t="s">
+      <c r="F173" t="s">
+        <v>699</v>
+      </c>
+      <c r="G173" s="4" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="174" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A174" s="5" t="s">
         <v>181</v>
       </c>
@@ -7622,21 +6638,14 @@
       <c r="E174" s="4" t="s">
         <v>642</v>
       </c>
-      <c r="F174" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G174" t="b">
-        <v>0</v>
-      </c>
-      <c r="H174" t="b">
-        <v>0</v>
-      </c>
-      <c r="I174" s="4" t="s">
+      <c r="F174" t="s">
+        <v>699</v>
+      </c>
+      <c r="G174" s="4" t="s">
         <v>642</v>
       </c>
-      <c r="J174" s="14"/>
-    </row>
-    <row r="175" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="175" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A175" s="5" t="s">
         <v>182</v>
       </c>
@@ -7652,20 +6661,14 @@
       <c r="E175" s="4" t="s">
         <v>643</v>
       </c>
-      <c r="F175" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="G175" t="b">
-        <v>0</v>
-      </c>
-      <c r="H175" t="b">
-        <v>0</v>
-      </c>
-      <c r="I175" s="4" t="s">
+      <c r="F175" t="s">
+        <v>699</v>
+      </c>
+      <c r="G175" s="4" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="176" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A176" s="5" t="s">
         <v>183</v>
       </c>
@@ -7681,20 +6684,14 @@
       <c r="E176" s="4" t="s">
         <v>644</v>
       </c>
-      <c r="F176" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G176" t="b">
-        <v>0</v>
-      </c>
-      <c r="H176" t="b">
-        <v>0</v>
-      </c>
-      <c r="I176" s="4" t="s">
+      <c r="F176" t="s">
+        <v>699</v>
+      </c>
+      <c r="G176" s="4" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="177" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A177" s="5" t="s">
         <v>184</v>
       </c>
@@ -7710,20 +6707,14 @@
       <c r="E177" s="4" t="s">
         <v>645</v>
       </c>
-      <c r="F177" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G177" t="b">
-        <v>0</v>
-      </c>
-      <c r="H177" t="b">
-        <v>0</v>
-      </c>
-      <c r="I177" s="4" t="s">
+      <c r="F177" t="s">
+        <v>699</v>
+      </c>
+      <c r="G177" s="4" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="178" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A178" s="5" t="s">
         <v>185</v>
       </c>
@@ -7739,20 +6730,14 @@
       <c r="E178" s="4" t="s">
         <v>646</v>
       </c>
-      <c r="F178" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G178" t="b">
-        <v>0</v>
-      </c>
-      <c r="H178" t="b">
-        <v>0</v>
-      </c>
-      <c r="I178" s="4" t="s">
+      <c r="F178" t="s">
+        <v>699</v>
+      </c>
+      <c r="G178" s="4" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="179" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A179" s="5" t="s">
         <v>186</v>
       </c>
@@ -7768,20 +6753,14 @@
       <c r="E179" s="4" t="s">
         <v>647</v>
       </c>
-      <c r="F179" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G179" t="b">
-        <v>0</v>
-      </c>
-      <c r="H179" t="b">
-        <v>0</v>
-      </c>
-      <c r="I179" s="4" t="s">
+      <c r="F179" t="s">
+        <v>699</v>
+      </c>
+      <c r="G179" s="4" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="180" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A180" s="5" t="s">
         <v>187</v>
       </c>
@@ -7797,20 +6776,14 @@
       <c r="E180" s="4" t="s">
         <v>648</v>
       </c>
-      <c r="F180" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G180" t="b">
-        <v>0</v>
-      </c>
-      <c r="H180" t="b">
-        <v>0</v>
-      </c>
-      <c r="I180" s="4" t="s">
+      <c r="F180" t="s">
+        <v>699</v>
+      </c>
+      <c r="G180" s="4" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="181" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A181" s="5" t="s">
         <v>188</v>
       </c>
@@ -7826,20 +6799,14 @@
       <c r="E181" s="4" t="s">
         <v>649</v>
       </c>
-      <c r="F181" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G181" t="b">
-        <v>0</v>
-      </c>
-      <c r="H181" t="b">
-        <v>0</v>
-      </c>
-      <c r="I181" s="4" t="s">
+      <c r="F181" t="s">
+        <v>699</v>
+      </c>
+      <c r="G181" s="4" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="182" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A182" s="5" t="s">
         <v>189</v>
       </c>
@@ -7855,20 +6822,14 @@
       <c r="E182" s="4" t="s">
         <v>650</v>
       </c>
-      <c r="F182" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G182" t="b">
-        <v>1</v>
-      </c>
-      <c r="H182" t="b">
-        <v>0</v>
-      </c>
-      <c r="I182" s="4" t="s">
+      <c r="F182" t="s">
+        <v>715</v>
+      </c>
+      <c r="G182" s="4" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="183" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A183" s="5" t="s">
         <v>190</v>
       </c>
@@ -7884,20 +6845,14 @@
       <c r="E183" s="4" t="s">
         <v>651</v>
       </c>
-      <c r="F183" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="G183" t="b">
-        <v>0</v>
-      </c>
-      <c r="H183" t="b">
-        <v>0</v>
-      </c>
-      <c r="I183" s="4" t="s">
+      <c r="F183" t="s">
+        <v>699</v>
+      </c>
+      <c r="G183" s="4" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="184" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A184" s="7" t="s">
         <v>191</v>
       </c>
@@ -7913,20 +6868,14 @@
       <c r="E184" s="4" t="s">
         <v>652</v>
       </c>
-      <c r="F184" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="G184" t="b">
-        <v>0</v>
-      </c>
-      <c r="H184" t="b">
-        <v>0</v>
-      </c>
-      <c r="I184" s="4" t="s">
+      <c r="F184" t="s">
+        <v>699</v>
+      </c>
+      <c r="G184" s="4" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="185" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A185" s="5" t="s">
         <v>192</v>
       </c>
@@ -7942,20 +6891,14 @@
       <c r="E185" s="4" t="s">
         <v>653</v>
       </c>
-      <c r="F185" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G185" t="b">
-        <v>1</v>
-      </c>
-      <c r="H185" t="b">
-        <v>0</v>
-      </c>
-      <c r="I185" s="4" t="s">
+      <c r="F185" t="s">
+        <v>715</v>
+      </c>
+      <c r="G185" s="4" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="186" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A186" s="5" t="s">
         <v>193</v>
       </c>
@@ -7971,20 +6914,14 @@
       <c r="E186" s="4" t="s">
         <v>654</v>
       </c>
-      <c r="F186" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G186" t="b">
-        <v>0</v>
-      </c>
-      <c r="H186" t="b">
-        <v>0</v>
-      </c>
-      <c r="I186" s="4" t="s">
+      <c r="F186" t="s">
+        <v>699</v>
+      </c>
+      <c r="G186" s="4" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="187" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A187" s="5" t="s">
         <v>194</v>
       </c>
@@ -8000,20 +6937,14 @@
       <c r="E187" s="4" t="s">
         <v>655</v>
       </c>
-      <c r="F187" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G187" t="b">
-        <v>0</v>
-      </c>
-      <c r="H187" t="b">
-        <v>0</v>
-      </c>
-      <c r="I187" s="4" t="s">
+      <c r="F187" t="s">
+        <v>699</v>
+      </c>
+      <c r="G187" s="4" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="188" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A188" s="5" t="s">
         <v>195</v>
       </c>
@@ -8029,20 +6960,14 @@
       <c r="E188" s="4" t="s">
         <v>656</v>
       </c>
-      <c r="F188" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G188" t="b">
-        <v>0</v>
-      </c>
-      <c r="H188" t="b">
-        <v>0</v>
-      </c>
-      <c r="I188" s="4" t="s">
+      <c r="F188" t="s">
+        <v>699</v>
+      </c>
+      <c r="G188" s="4" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="189" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A189" s="5" t="s">
         <v>196</v>
       </c>
@@ -8058,20 +6983,14 @@
       <c r="E189" s="4" t="s">
         <v>657</v>
       </c>
-      <c r="F189" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G189" t="b">
-        <v>0</v>
-      </c>
-      <c r="H189" t="b">
-        <v>0</v>
-      </c>
-      <c r="I189" s="4" t="s">
+      <c r="F189" t="s">
+        <v>699</v>
+      </c>
+      <c r="G189" s="4" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="190" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A190" s="5" t="s">
         <v>197</v>
       </c>
@@ -8087,20 +7006,14 @@
       <c r="E190" s="4" t="s">
         <v>658</v>
       </c>
-      <c r="F190" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G190" t="b">
-        <v>0</v>
-      </c>
-      <c r="H190" t="b">
-        <v>0</v>
-      </c>
-      <c r="I190" s="4" t="s">
+      <c r="F190" t="s">
+        <v>699</v>
+      </c>
+      <c r="G190" s="4" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="191" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A191" s="5" t="s">
         <v>198</v>
       </c>
@@ -8116,20 +7029,14 @@
       <c r="E191" s="4" t="s">
         <v>659</v>
       </c>
-      <c r="F191" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G191" t="b">
-        <v>0</v>
-      </c>
-      <c r="H191" t="b">
-        <v>0</v>
-      </c>
-      <c r="I191" s="4" t="s">
+      <c r="F191" t="s">
+        <v>699</v>
+      </c>
+      <c r="G191" s="4" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="192" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A192" s="5" t="s">
         <v>199</v>
       </c>
@@ -8145,20 +7052,14 @@
       <c r="E192" s="4" t="s">
         <v>660</v>
       </c>
-      <c r="F192" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G192" t="b">
-        <v>0</v>
-      </c>
-      <c r="H192" t="b">
-        <v>0</v>
-      </c>
-      <c r="I192" s="4" t="s">
+      <c r="F192" t="s">
+        <v>699</v>
+      </c>
+      <c r="G192" s="4" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="193" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A193" s="5" t="s">
         <v>200</v>
       </c>
@@ -8174,20 +7075,14 @@
       <c r="E193" s="4" t="s">
         <v>661</v>
       </c>
-      <c r="F193" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G193" t="b">
-        <v>0</v>
-      </c>
-      <c r="H193" t="b">
-        <v>0</v>
-      </c>
-      <c r="I193" s="4" t="s">
+      <c r="F193" t="s">
+        <v>699</v>
+      </c>
+      <c r="G193" s="4" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="194" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A194" s="5" t="s">
         <v>201</v>
       </c>
@@ -8203,21 +7098,14 @@
       <c r="E194" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="F194" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G194" t="b">
-        <v>0</v>
-      </c>
-      <c r="H194" t="b">
-        <v>0</v>
-      </c>
-      <c r="I194" s="4" t="s">
+      <c r="F194" t="s">
+        <v>699</v>
+      </c>
+      <c r="G194" s="4" t="s">
         <v>662</v>
       </c>
-      <c r="J194" s="14"/>
-    </row>
-    <row r="195" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="195" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A195" s="5" t="s">
         <v>202</v>
       </c>
@@ -8233,20 +7121,14 @@
       <c r="E195" s="4" t="s">
         <v>663</v>
       </c>
-      <c r="F195" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G195" t="b">
-        <v>0</v>
-      </c>
-      <c r="H195" t="b">
-        <v>0</v>
-      </c>
-      <c r="I195" s="4" t="s">
+      <c r="F195" t="s">
+        <v>699</v>
+      </c>
+      <c r="G195" s="4" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="196" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A196" s="5" t="s">
         <v>203</v>
       </c>
@@ -8262,20 +7144,14 @@
       <c r="E196" s="4" t="s">
         <v>664</v>
       </c>
-      <c r="F196" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G196" t="b">
-        <v>1</v>
-      </c>
-      <c r="H196" t="b">
-        <v>0</v>
-      </c>
-      <c r="I196" s="4" t="s">
+      <c r="F196" t="s">
+        <v>715</v>
+      </c>
+      <c r="G196" s="4" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="197" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A197" s="5" t="s">
         <v>204</v>
       </c>
@@ -8291,20 +7167,14 @@
       <c r="E197" s="4" t="s">
         <v>665</v>
       </c>
-      <c r="F197" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="G197" t="b">
-        <v>0</v>
-      </c>
-      <c r="H197" t="b">
-        <v>0</v>
-      </c>
-      <c r="I197" s="4" t="s">
+      <c r="F197" t="s">
+        <v>699</v>
+      </c>
+      <c r="G197" s="4" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="198" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A198" s="7" t="s">
         <v>205</v>
       </c>
@@ -8320,20 +7190,14 @@
       <c r="E198" s="4" t="s">
         <v>666</v>
       </c>
-      <c r="F198" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="G198" t="b">
-        <v>0</v>
-      </c>
-      <c r="H198" t="b">
-        <v>0</v>
-      </c>
-      <c r="I198" s="4" t="s">
+      <c r="F198" t="s">
+        <v>699</v>
+      </c>
+      <c r="G198" s="4" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="199" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A199" s="5" t="s">
         <v>206</v>
       </c>
@@ -8349,20 +7213,14 @@
       <c r="E199" s="4" t="s">
         <v>667</v>
       </c>
-      <c r="F199" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G199" t="b">
-        <v>1</v>
-      </c>
-      <c r="H199" t="b">
-        <v>0</v>
-      </c>
-      <c r="I199" s="4" t="s">
+      <c r="F199" t="s">
+        <v>715</v>
+      </c>
+      <c r="G199" s="4" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="200" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A200" s="5" t="s">
         <v>207</v>
       </c>
@@ -8378,20 +7236,14 @@
       <c r="E200" s="4" t="s">
         <v>472</v>
       </c>
-      <c r="F200" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G200" t="b">
-        <v>0</v>
-      </c>
-      <c r="H200" t="b">
-        <v>0</v>
-      </c>
-      <c r="I200" s="4" t="s">
+      <c r="F200" t="s">
+        <v>699</v>
+      </c>
+      <c r="G200" s="4" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="201" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A201" s="5" t="s">
         <v>208</v>
       </c>
@@ -8407,20 +7259,14 @@
       <c r="E201" s="4" t="s">
         <v>668</v>
       </c>
-      <c r="F201" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G201" t="b">
-        <v>0</v>
-      </c>
-      <c r="H201" t="b">
-        <v>0</v>
-      </c>
-      <c r="I201" s="4" t="s">
+      <c r="F201" t="s">
+        <v>699</v>
+      </c>
+      <c r="G201" s="4" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="202" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A202" s="5" t="s">
         <v>209</v>
       </c>
@@ -8436,20 +7282,14 @@
       <c r="E202" s="4" t="s">
         <v>669</v>
       </c>
-      <c r="F202" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G202" t="b">
-        <v>0</v>
-      </c>
-      <c r="H202" t="b">
-        <v>0</v>
-      </c>
-      <c r="I202" s="4" t="s">
+      <c r="F202" t="s">
+        <v>699</v>
+      </c>
+      <c r="G202" s="4" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="203" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A203" s="5" t="s">
         <v>210</v>
       </c>
@@ -8465,20 +7305,14 @@
       <c r="E203" s="4" t="s">
         <v>670</v>
       </c>
-      <c r="F203" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G203" t="b">
-        <v>0</v>
-      </c>
-      <c r="H203" t="b">
-        <v>0</v>
-      </c>
-      <c r="I203" s="4" t="s">
+      <c r="F203" t="s">
+        <v>699</v>
+      </c>
+      <c r="G203" s="4" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="204" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A204" s="5" t="s">
         <v>211</v>
       </c>
@@ -8494,20 +7328,14 @@
       <c r="E204" s="4" t="s">
         <v>671</v>
       </c>
-      <c r="F204" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G204" t="b">
-        <v>0</v>
-      </c>
-      <c r="H204" t="b">
-        <v>0</v>
-      </c>
-      <c r="I204" s="4" t="s">
+      <c r="F204" t="s">
+        <v>699</v>
+      </c>
+      <c r="G204" s="4" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="205" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A205" s="5" t="s">
         <v>212</v>
       </c>
@@ -8523,20 +7351,14 @@
       <c r="E205" s="4" t="s">
         <v>672</v>
       </c>
-      <c r="F205" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G205" t="b">
-        <v>0</v>
-      </c>
-      <c r="H205" t="b">
-        <v>0</v>
-      </c>
-      <c r="I205" s="4" t="s">
+      <c r="F205" t="s">
+        <v>699</v>
+      </c>
+      <c r="G205" s="4" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="206" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A206" s="5" t="s">
         <v>213</v>
       </c>
@@ -8552,20 +7374,14 @@
       <c r="E206" s="4" t="s">
         <v>673</v>
       </c>
-      <c r="F206" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G206" t="b">
-        <v>0</v>
-      </c>
-      <c r="H206" t="b">
-        <v>0</v>
-      </c>
-      <c r="I206" s="4" t="s">
+      <c r="F206" t="s">
+        <v>699</v>
+      </c>
+      <c r="G206" s="4" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="207" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A207" s="5" t="s">
         <v>214</v>
       </c>
@@ -8581,20 +7397,14 @@
       <c r="E207" s="4" t="s">
         <v>674</v>
       </c>
-      <c r="F207" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G207" t="b">
-        <v>0</v>
-      </c>
-      <c r="H207" t="b">
-        <v>0</v>
-      </c>
-      <c r="I207" s="4" t="s">
+      <c r="F207" t="s">
+        <v>699</v>
+      </c>
+      <c r="G207" s="4" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="208" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A208" s="5" t="s">
         <v>215</v>
       </c>
@@ -8610,20 +7420,14 @@
       <c r="E208" s="4" t="s">
         <v>675</v>
       </c>
-      <c r="F208" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G208" t="b">
-        <v>0</v>
-      </c>
-      <c r="H208" t="b">
-        <v>0</v>
-      </c>
-      <c r="I208" s="4" t="s">
+      <c r="F208" t="s">
+        <v>699</v>
+      </c>
+      <c r="G208" s="4" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="209" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A209" s="5" t="s">
         <v>216</v>
       </c>
@@ -8639,20 +7443,14 @@
       <c r="E209" s="4" t="s">
         <v>676</v>
       </c>
-      <c r="F209" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G209" t="b">
-        <v>0</v>
-      </c>
-      <c r="H209" t="b">
-        <v>0</v>
-      </c>
-      <c r="I209" s="4" t="s">
+      <c r="F209" t="s">
+        <v>699</v>
+      </c>
+      <c r="G209" s="4" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="210" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A210" s="5" t="s">
         <v>217</v>
       </c>
@@ -8668,20 +7466,14 @@
       <c r="E210" s="4" t="s">
         <v>677</v>
       </c>
-      <c r="F210" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G210" t="b">
-        <v>1</v>
-      </c>
-      <c r="H210" t="b">
-        <v>0</v>
-      </c>
-      <c r="I210" s="4" t="s">
+      <c r="F210" t="s">
+        <v>715</v>
+      </c>
+      <c r="G210" s="4" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="211" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A211" s="5" t="s">
         <v>218</v>
       </c>
@@ -8697,20 +7489,14 @@
       <c r="E211" s="4" t="s">
         <v>678</v>
       </c>
-      <c r="F211" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="G211" t="b">
-        <v>0</v>
-      </c>
-      <c r="H211" t="b">
-        <v>0</v>
-      </c>
-      <c r="I211" s="4" t="s">
+      <c r="F211" t="s">
+        <v>699</v>
+      </c>
+      <c r="G211" s="4" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="212" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A212" s="7" t="s">
         <v>219</v>
       </c>
@@ -8726,20 +7512,14 @@
       <c r="E212" s="4" t="s">
         <v>679</v>
       </c>
-      <c r="F212" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="G212" t="b">
-        <v>0</v>
-      </c>
-      <c r="H212" t="b">
-        <v>0</v>
-      </c>
-      <c r="I212" s="4" t="s">
+      <c r="F212" t="s">
+        <v>699</v>
+      </c>
+      <c r="G212" s="4" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="213" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A213" s="5" t="s">
         <v>220</v>
       </c>
@@ -8755,20 +7535,14 @@
       <c r="E213" s="4" t="s">
         <v>680</v>
       </c>
-      <c r="F213" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G213" t="b">
-        <v>1</v>
-      </c>
-      <c r="H213" t="b">
-        <v>0</v>
-      </c>
-      <c r="I213" s="4" t="s">
+      <c r="F213" t="s">
+        <v>715</v>
+      </c>
+      <c r="G213" s="4" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="214" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A214" s="5" t="s">
         <v>221</v>
       </c>
@@ -8784,20 +7558,14 @@
       <c r="E214" s="4" t="s">
         <v>681</v>
       </c>
-      <c r="F214" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G214" t="b">
-        <v>0</v>
-      </c>
-      <c r="H214" t="b">
-        <v>0</v>
-      </c>
-      <c r="I214" s="4" t="s">
+      <c r="F214" t="s">
+        <v>699</v>
+      </c>
+      <c r="G214" s="4" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="215" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A215" s="5" t="s">
         <v>222</v>
       </c>
@@ -8813,20 +7581,14 @@
       <c r="E215" s="4" t="s">
         <v>682</v>
       </c>
-      <c r="F215" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="G215" t="b">
-        <v>0</v>
-      </c>
-      <c r="H215" t="b">
-        <v>0</v>
-      </c>
-      <c r="I215" s="4" t="s">
+      <c r="F215" t="s">
+        <v>699</v>
+      </c>
+      <c r="G215" s="4" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="216" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A216" s="5" t="s">
         <v>223</v>
       </c>
@@ -8842,21 +7604,14 @@
       <c r="E216" s="4" t="s">
         <v>683</v>
       </c>
-      <c r="F216" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G216" t="b">
-        <v>0</v>
-      </c>
-      <c r="H216" t="b">
-        <v>0</v>
-      </c>
-      <c r="I216" s="4" t="s">
+      <c r="F216" t="s">
+        <v>699</v>
+      </c>
+      <c r="G216" s="4" t="s">
         <v>683</v>
       </c>
-      <c r="J216" s="14"/>
-    </row>
-    <row r="217" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="217" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A217" s="5" t="s">
         <v>224</v>
       </c>
@@ -8872,20 +7627,14 @@
       <c r="E217" s="4" t="s">
         <v>684</v>
       </c>
-      <c r="F217" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G217" t="b">
-        <v>0</v>
-      </c>
-      <c r="H217" t="b">
-        <v>0</v>
-      </c>
-      <c r="I217" s="4" t="s">
+      <c r="F217" t="s">
+        <v>699</v>
+      </c>
+      <c r="G217" s="4" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="218" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A218" s="5" t="s">
         <v>225</v>
       </c>
@@ -8901,20 +7650,14 @@
       <c r="E218" s="4" t="s">
         <v>685</v>
       </c>
-      <c r="F218" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G218" t="b">
-        <v>0</v>
-      </c>
-      <c r="H218" t="b">
-        <v>0</v>
-      </c>
-      <c r="I218" s="4" t="s">
+      <c r="F218" t="s">
+        <v>699</v>
+      </c>
+      <c r="G218" s="4" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="219" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A219" s="5" t="s">
         <v>226</v>
       </c>
@@ -8930,20 +7673,14 @@
       <c r="E219" s="4" t="s">
         <v>686</v>
       </c>
-      <c r="F219" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G219" t="b">
-        <v>0</v>
-      </c>
-      <c r="H219" t="b">
-        <v>0</v>
-      </c>
-      <c r="I219" s="4" t="s">
+      <c r="F219" t="s">
+        <v>699</v>
+      </c>
+      <c r="G219" s="4" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="220" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A220" s="5" t="s">
         <v>227</v>
       </c>
@@ -8959,20 +7696,14 @@
       <c r="E220" s="4" t="s">
         <v>687</v>
       </c>
-      <c r="F220" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G220" t="b">
-        <v>0</v>
-      </c>
-      <c r="H220" t="b">
-        <v>0</v>
-      </c>
-      <c r="I220" s="4" t="s">
+      <c r="F220" t="s">
+        <v>699</v>
+      </c>
+      <c r="G220" s="4" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="221" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A221" s="5" t="s">
         <v>228</v>
       </c>
@@ -8988,20 +7719,14 @@
       <c r="E221" s="11" t="s">
         <v>688</v>
       </c>
-      <c r="F221" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G221" t="b">
-        <v>0</v>
-      </c>
-      <c r="H221" t="b">
-        <v>0</v>
-      </c>
-      <c r="I221" s="11" t="s">
+      <c r="F221" t="s">
+        <v>699</v>
+      </c>
+      <c r="G221" s="11" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="222" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A222" s="5" t="s">
         <v>229</v>
       </c>
@@ -9017,20 +7742,14 @@
       <c r="E222" s="4" t="s">
         <v>689</v>
       </c>
-      <c r="F222" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G222" t="b">
-        <v>0</v>
-      </c>
-      <c r="H222" t="b">
-        <v>0</v>
-      </c>
-      <c r="I222" s="4" t="s">
+      <c r="F222" t="s">
+        <v>699</v>
+      </c>
+      <c r="G222" s="4" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="223" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A223" s="5" t="s">
         <v>230</v>
       </c>
@@ -9046,20 +7765,14 @@
       <c r="E223" s="4" t="s">
         <v>690</v>
       </c>
-      <c r="F223" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G223" t="b">
-        <v>0</v>
-      </c>
-      <c r="H223" t="b">
-        <v>0</v>
-      </c>
-      <c r="I223" s="4" t="s">
+      <c r="F223" t="s">
+        <v>699</v>
+      </c>
+      <c r="G223" s="4" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="224" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A224" s="5" t="s">
         <v>231</v>
       </c>
@@ -9075,16 +7788,10 @@
       <c r="E224" s="4" t="s">
         <v>691</v>
       </c>
-      <c r="F224" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G224" t="b">
-        <v>1</v>
-      </c>
-      <c r="H224" t="b">
-        <v>0</v>
-      </c>
-      <c r="I224" s="4" t="s">
+      <c r="F224" t="s">
+        <v>715</v>
+      </c>
+      <c r="G224" s="4" t="s">
         <v>691</v>
       </c>
     </row>
@@ -9104,16 +7811,10 @@
       <c r="E225" s="4" t="s">
         <v>692</v>
       </c>
-      <c r="F225" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="G225" t="b">
-        <v>0</v>
-      </c>
-      <c r="H225" t="b">
-        <v>0</v>
-      </c>
-      <c r="I225" s="4" t="s">
+      <c r="F225" t="s">
+        <v>699</v>
+      </c>
+      <c r="G225" s="4" t="s">
         <v>692</v>
       </c>
     </row>
@@ -9133,38 +7834,198 @@
       <c r="E226" s="4" t="s">
         <v>693</v>
       </c>
-      <c r="F226" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="G226" t="b">
-        <v>0</v>
-      </c>
-      <c r="H226" t="b">
-        <v>0</v>
-      </c>
-      <c r="I226" s="4" t="s">
+      <c r="F226" t="s">
+        <v>699</v>
+      </c>
+      <c r="G226" s="4" t="s">
         <v>693</v>
       </c>
     </row>
     <row r="227" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="B227" s="6" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="E227" s="4" t="s">
-        <v>699</v>
-      </c>
-      <c r="H227" t="b">
-        <v>1</v>
+        <v>697</v>
+      </c>
+      <c r="F227" t="s">
+        <v>694</v>
+      </c>
+      <c r="G227" s="4" t="s">
+        <v>697</v>
+      </c>
+      <c r="H227" t="s">
+        <v>702</v>
       </c>
       <c r="I227" s="4" t="s">
-        <v>699</v>
+        <v>702</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="B228" s="6" t="s">
+        <v>703</v>
+      </c>
+      <c r="E228" s="4" t="s">
+        <v>704</v>
+      </c>
+      <c r="F228" t="s">
+        <v>705</v>
+      </c>
+      <c r="G228" s="4" t="s">
+        <v>704</v>
+      </c>
+      <c r="H228" t="s">
+        <v>5</v>
+      </c>
+      <c r="I228" s="4" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B229" s="6" t="s">
+        <v>706</v>
+      </c>
+      <c r="E229" t="s">
+        <v>707</v>
+      </c>
+      <c r="F229" t="s">
+        <v>705</v>
+      </c>
+      <c r="G229" t="s">
+        <v>707</v>
+      </c>
+      <c r="H229" t="s">
+        <v>5</v>
+      </c>
+      <c r="I229" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="B230" s="6" t="s">
+        <v>708</v>
+      </c>
+      <c r="E230" s="4" t="s">
+        <v>709</v>
+      </c>
+      <c r="F230" t="s">
+        <v>705</v>
+      </c>
+      <c r="G230" s="4" t="s">
+        <v>709</v>
+      </c>
+      <c r="H230" t="s">
+        <v>5</v>
+      </c>
+      <c r="I230" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="B231" s="6" t="s">
+        <v>710</v>
+      </c>
+      <c r="E231" s="4" t="s">
+        <v>711</v>
+      </c>
+      <c r="F231" t="s">
+        <v>705</v>
+      </c>
+      <c r="G231" t="s">
+        <v>711</v>
+      </c>
+      <c r="H231" t="s">
+        <v>52</v>
+      </c>
+      <c r="I231" s="4" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="B232" s="6" t="s">
+        <v>712</v>
+      </c>
+      <c r="E232" s="4" t="s">
+        <v>713</v>
+      </c>
+      <c r="F232" t="s">
+        <v>705</v>
+      </c>
+      <c r="G232" s="4" t="s">
+        <v>713</v>
+      </c>
+      <c r="H232" t="s">
+        <v>67</v>
+      </c>
+      <c r="I232" s="4" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="B233" s="6" t="s">
+        <v>716</v>
+      </c>
+      <c r="E233" s="4" t="s">
+        <v>717</v>
+      </c>
+      <c r="F233" t="s">
+        <v>705</v>
+      </c>
+      <c r="G233" t="s">
+        <v>717</v>
+      </c>
+      <c r="H233" t="s">
+        <v>82</v>
+      </c>
+      <c r="I233" s="4" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="B234" s="6" t="s">
+        <v>718</v>
+      </c>
+      <c r="E234" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="F234" t="s">
+        <v>705</v>
+      </c>
+      <c r="G234" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="H234" t="s">
+        <v>714</v>
+      </c>
+      <c r="I234" s="4" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="B235" s="6" t="s">
+        <v>720</v>
+      </c>
+      <c r="E235" s="4" t="s">
+        <v>721</v>
+      </c>
+      <c r="F235" t="s">
+        <v>705</v>
+      </c>
+      <c r="G235" t="s">
+        <v>721</v>
+      </c>
+      <c r="H235" t="s">
+        <v>126</v>
+      </c>
+      <c r="I235" s="4" t="s">
+        <v>702</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2">
+  <conditionalFormatting sqref="G2">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
